--- a/reception_analysis_data.xlsx
+++ b/reception_analysis_data.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Noah Zeldin\Documents\R stuff\R projects\dissertation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBCD5B7F-8A20-44BA-B0DA-AD4886D5B6B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{276BC5F8-2822-4DCC-B7EB-D8E5C22A3114}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{05090813-5714-498C-A2E7-B769A3723D8B}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{05090813-5714-498C-A2E7-B769A3723D8B}"/>
   </bookViews>
   <sheets>
-    <sheet name="all_docs" sheetId="1" r:id="rId1"/>
+    <sheet name="all_docs_lowercase" sheetId="3" r:id="rId1"/>
+    <sheet name="all_docs" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -33,6 +34,184 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Noah Zeldin</author>
+  </authors>
+  <commentList>
+    <comment ref="H25" authorId="0" shapeId="0" xr:uid="{BAAF96E9-0326-41FC-BCEE-DC4D3238CCD8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Noah Zeldin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+need to confirm that first issue was Jan. 1931</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C27" authorId="0" shapeId="0" xr:uid="{874AAE15-FA18-46B7-A7FF-D2F5E5139FEC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Noah Zeldin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+consider whether to include b/c more of an announcement rather than review - YES BUT includes discussion of participants, which is of interest</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H34" authorId="0" shapeId="0" xr:uid="{8C9092DD-FC9B-482C-89C3-407C4C7BBD34}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Noah Zeldin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+figure out after picking up from lib.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C39" authorId="0" shapeId="0" xr:uid="{18A1D76F-0EEC-4C3A-AFBB-6A16DB399A74}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Noah Zeldin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+reconsider if necessary to include</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C42" authorId="0" shapeId="0" xr:uid="{C6E9F8B5-9094-4C51-8CAE-3B01805FC92E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Noah Zeldin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+reconsider inclusion</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C43" authorId="0" shapeId="0" xr:uid="{9CACC197-9EEE-496D-8541-846BB81DE6E7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Noah Zeldin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+reconsider inclusion</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H48" authorId="0" shapeId="0" xr:uid="{7174E7A0-C4E4-4C90-90E0-26DD7BBF2907}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Noah Zeldin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+seems weird but that's what the file name says</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Noah Zeldin</author>
@@ -211,7 +390,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1836" uniqueCount="768">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3672" uniqueCount="781">
   <si>
     <t>Article</t>
   </si>
@@ -3240,6 +3419,45 @@
   </si>
   <si>
     <t>Arbeitersänger</t>
+  </si>
+  <si>
+    <t>article</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>newspaper</t>
+  </si>
+  <si>
+    <t>publisher</t>
+  </si>
+  <si>
+    <t>political_affiliation</t>
+  </si>
+  <si>
+    <t>general_political_orientation</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>author</t>
+  </si>
+  <si>
+    <t>complete_or_incomplete</t>
+  </si>
+  <si>
+    <t>other_metadata</t>
+  </si>
+  <si>
+    <t>other_notes</t>
+  </si>
+  <si>
+    <t>piece</t>
   </si>
 </sst>
 </file>
@@ -3371,7 +3589,31 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="6">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="dd\.mm\.yy;@"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="dd\.mm\.yy;@"/>
     </dxf>
@@ -3410,7 +3652,35 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DFEF7EC7-0B04-4EAF-A648-DC3132C9E897}" name="Table127" displayName="Table127" ref="A1:P134" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{49C23A2C-768D-4B32-A344-B9C401E8A7FF}" name="Table1273" displayName="Table1273" ref="A1:P134" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:P134" xr:uid="{DDA35F3D-5C39-4BA4-9D26-FE7F4CD1EB55}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P133">
+    <sortCondition ref="A1:A133"/>
+  </sortState>
+  <tableColumns count="16">
+    <tableColumn id="1" xr3:uid="{422F47A0-923B-4C2D-81A3-9BBF1DFCA55C}" name="article"/>
+    <tableColumn id="2" xr3:uid="{0D3CDFCF-0F53-418D-AE54-FC8D770F3032}" name="title"/>
+    <tableColumn id="3" xr3:uid="{A3CF175C-FD6B-4072-94B1-3E0572771675}" name="text" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{C01230CB-130E-4C92-93D6-3861D28642C5}" name="newspaper"/>
+    <tableColumn id="5" xr3:uid="{A6C7A2E8-C102-4281-9B0C-BBEF963E8273}" name="publisher"/>
+    <tableColumn id="6" xr3:uid="{B198536F-1B0B-4A94-854C-9D962D3A87DC}" name="political_affiliation"/>
+    <tableColumn id="7" xr3:uid="{1F692341-8173-458B-8BCA-970394D52A36}" name="general_political_orientation"/>
+    <tableColumn id="8" xr3:uid="{DE4B8F17-4EE8-451E-B514-EF1677009477}" name="date" dataDxfId="0"/>
+    <tableColumn id="9" xr3:uid="{5888EE26-0165-48B2-B195-5821C4982DE6}" name="author"/>
+    <tableColumn id="10" xr3:uid="{3CC497D6-E134-41DB-87FC-16DD218E3706}" name="complete_or_incomplete"/>
+    <tableColumn id="11" xr3:uid="{90B2C45C-E4F3-4736-B554-8F0528B9096B}" name="other_metadata"/>
+    <tableColumn id="12" xr3:uid="{3293219B-B6EE-44FB-9CC6-7F4DE350104C}" name="other_notes"/>
+    <tableColumn id="13" xr3:uid="{D796ED9A-181F-4EDA-8805-BCBCD39E9F86}" name="AdK"/>
+    <tableColumn id="14" xr3:uid="{55FB9CC3-D0C0-48F1-B29F-A8EEA1497B1C}" name="AdK_Duplicate"/>
+    <tableColumn id="15" xr3:uid="{E465DF40-5AE7-43E9-8C09-966F8F8E2637}" name="Comp_Doc"/>
+    <tableColumn id="16" xr3:uid="{D529A74B-A86A-41F6-AD02-35BE78B253B7}" name="piece"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DFEF7EC7-0B04-4EAF-A648-DC3132C9E897}" name="Table127" displayName="Table127" ref="A1:P134" totalsRowShown="0" headerRowDxfId="5">
   <autoFilter ref="A1:P134" xr:uid="{DDA35F3D-5C39-4BA4-9D26-FE7F4CD1EB55}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P133">
     <sortCondition ref="A1:A133"/>
@@ -3418,12 +3688,12 @@
   <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{237CA280-B582-42E5-BA18-773F019F4B3F}" name="Article"/>
     <tableColumn id="2" xr3:uid="{DE652D48-908C-4C64-AF64-20E62CAF1829}" name="Title"/>
-    <tableColumn id="3" xr3:uid="{6281C9FD-227B-4082-BDC1-542E7A350C4D}" name="Text" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{6281C9FD-227B-4082-BDC1-542E7A350C4D}" name="Text" dataDxfId="4"/>
     <tableColumn id="4" xr3:uid="{502B5229-354D-49F3-AC9A-FB9544CBCE47}" name="Newspaper"/>
     <tableColumn id="5" xr3:uid="{D57DFC07-FD07-433D-B899-AF5176F828B9}" name="Publisher"/>
     <tableColumn id="6" xr3:uid="{E896C188-0611-4C19-9DDA-914ADBE25A82}" name="Political_Affiliation_or_Orientation"/>
     <tableColumn id="7" xr3:uid="{DA7CB52E-F7BD-411D-A462-A18B8D360199}" name="Generalized_Political_Orientation"/>
-    <tableColumn id="8" xr3:uid="{0D0F0A44-00D4-45D3-A98F-70D3DF997ACD}" name="Date" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{0D0F0A44-00D4-45D3-A98F-70D3DF997ACD}" name="Date" dataDxfId="3"/>
     <tableColumn id="9" xr3:uid="{34294C16-815F-4020-A732-8382AE497949}" name="Author"/>
     <tableColumn id="10" xr3:uid="{F32799DF-861C-4889-822A-F74DB77410B9}" name="Complete_or_Incomplete"/>
     <tableColumn id="11" xr3:uid="{69163501-FA7D-43A3-B105-D879135980E5}" name="Other_Metadata"/>
@@ -3733,13 +4003,6231 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD55270A-6EE4-4E29-A288-95E6364C6952}">
+  <dimension ref="A1:P134"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="Q5" sqref="Q5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="17.90625" customWidth="1"/>
+    <col min="3" max="3" width="26.36328125" customWidth="1"/>
+    <col min="4" max="4" width="33.6328125" customWidth="1"/>
+    <col min="5" max="5" width="29.54296875" customWidth="1"/>
+    <col min="6" max="6" width="11.36328125" customWidth="1"/>
+    <col min="7" max="7" width="10.90625" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.6328125" customWidth="1"/>
+    <col min="10" max="10" width="12" customWidth="1"/>
+    <col min="11" max="11" width="16.90625" customWidth="1"/>
+    <col min="12" max="12" width="26.36328125" customWidth="1"/>
+    <col min="13" max="13" width="30.36328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.08984375" customWidth="1"/>
+    <col min="15" max="16" width="12.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="M4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" t="s">
+        <v>26</v>
+      </c>
+      <c r="P4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" t="s">
+        <v>45</v>
+      </c>
+      <c r="L5" t="s">
+        <v>46</v>
+      </c>
+      <c r="M5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" t="s">
+        <v>55</v>
+      </c>
+      <c r="L6" t="s">
+        <v>56</v>
+      </c>
+      <c r="M6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" t="s">
+        <v>57</v>
+      </c>
+      <c r="O6" t="s">
+        <v>26</v>
+      </c>
+      <c r="P6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" t="s">
+        <v>62</v>
+      </c>
+      <c r="J7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L7" t="s">
+        <v>64</v>
+      </c>
+      <c r="M7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N7" t="s">
+        <v>65</v>
+      </c>
+      <c r="O7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" t="s">
+        <v>71</v>
+      </c>
+      <c r="J8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" t="s">
+        <v>72</v>
+      </c>
+      <c r="M8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N8" t="s">
+        <v>73</v>
+      </c>
+      <c r="O8" t="s">
+        <v>26</v>
+      </c>
+      <c r="P8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J9" t="s">
+        <v>34</v>
+      </c>
+      <c r="K9" t="s">
+        <v>78</v>
+      </c>
+      <c r="M9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N9" t="s">
+        <v>79</v>
+      </c>
+      <c r="O9" t="s">
+        <v>26</v>
+      </c>
+      <c r="P9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" t="s">
+        <v>83</v>
+      </c>
+      <c r="F10" t="s">
+        <v>84</v>
+      </c>
+      <c r="G10" t="s">
+        <v>85</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I10" t="s">
+        <v>86</v>
+      </c>
+      <c r="J10" t="s">
+        <v>34</v>
+      </c>
+      <c r="K10" t="s">
+        <v>87</v>
+      </c>
+      <c r="M10" t="s">
+        <v>26</v>
+      </c>
+      <c r="N10" t="s">
+        <v>65</v>
+      </c>
+      <c r="O10" t="s">
+        <v>26</v>
+      </c>
+      <c r="P10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" t="s">
+        <v>90</v>
+      </c>
+      <c r="E11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11" t="s">
+        <v>34</v>
+      </c>
+      <c r="K11" t="s">
+        <v>91</v>
+      </c>
+      <c r="L11" t="s">
+        <v>92</v>
+      </c>
+      <c r="M11" t="s">
+        <v>26</v>
+      </c>
+      <c r="N11" t="s">
+        <v>93</v>
+      </c>
+      <c r="O11" t="s">
+        <v>26</v>
+      </c>
+      <c r="P11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" t="s">
+        <v>96</v>
+      </c>
+      <c r="E12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I12" t="s">
+        <v>97</v>
+      </c>
+      <c r="J12" t="s">
+        <v>34</v>
+      </c>
+      <c r="K12" t="s">
+        <v>98</v>
+      </c>
+      <c r="M12" t="s">
+        <v>26</v>
+      </c>
+      <c r="N12" t="s">
+        <v>99</v>
+      </c>
+      <c r="O12" t="s">
+        <v>26</v>
+      </c>
+      <c r="P12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13" t="s">
+        <v>102</v>
+      </c>
+      <c r="E13" t="s">
+        <v>103</v>
+      </c>
+      <c r="F13" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I13" t="s">
+        <v>104</v>
+      </c>
+      <c r="J13" t="s">
+        <v>34</v>
+      </c>
+      <c r="K13" t="s">
+        <v>105</v>
+      </c>
+      <c r="M13" t="s">
+        <v>26</v>
+      </c>
+      <c r="O13" t="s">
+        <v>26</v>
+      </c>
+      <c r="P13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="I14" t="s">
+        <v>40</v>
+      </c>
+      <c r="J14" t="s">
+        <v>34</v>
+      </c>
+      <c r="K14" t="s">
+        <v>109</v>
+      </c>
+      <c r="L14" t="s">
+        <v>110</v>
+      </c>
+      <c r="M14" t="s">
+        <v>26</v>
+      </c>
+      <c r="O14" t="s">
+        <v>26</v>
+      </c>
+      <c r="P14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D15" t="s">
+        <v>113</v>
+      </c>
+      <c r="E15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="I15" t="s">
+        <v>114</v>
+      </c>
+      <c r="J15" t="s">
+        <v>34</v>
+      </c>
+      <c r="K15" t="s">
+        <v>115</v>
+      </c>
+      <c r="L15" t="s">
+        <v>116</v>
+      </c>
+      <c r="M15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N15" t="s">
+        <v>117</v>
+      </c>
+      <c r="O15" t="s">
+        <v>26</v>
+      </c>
+      <c r="P15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>118</v>
+      </c>
+      <c r="C16" t="s">
+        <v>119</v>
+      </c>
+      <c r="D16" t="s">
+        <v>120</v>
+      </c>
+      <c r="E16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" t="s">
+        <v>84</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I16" t="s">
+        <v>122</v>
+      </c>
+      <c r="J16" t="s">
+        <v>34</v>
+      </c>
+      <c r="K16" t="s">
+        <v>123</v>
+      </c>
+      <c r="M16" t="s">
+        <v>26</v>
+      </c>
+      <c r="O16" t="s">
+        <v>26</v>
+      </c>
+      <c r="P16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>124</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="I17" t="s">
+        <v>127</v>
+      </c>
+      <c r="J17" t="s">
+        <v>34</v>
+      </c>
+      <c r="K17" t="s">
+        <v>128</v>
+      </c>
+      <c r="M17" t="s">
+        <v>26</v>
+      </c>
+      <c r="N17" t="s">
+        <v>129</v>
+      </c>
+      <c r="O17" t="s">
+        <v>26</v>
+      </c>
+      <c r="P17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>130</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="I18" t="s">
+        <v>133</v>
+      </c>
+      <c r="J18" t="s">
+        <v>34</v>
+      </c>
+      <c r="K18" t="s">
+        <v>134</v>
+      </c>
+      <c r="L18" t="s">
+        <v>135</v>
+      </c>
+      <c r="M18" t="s">
+        <v>26</v>
+      </c>
+      <c r="O18" t="s">
+        <v>26</v>
+      </c>
+      <c r="P18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>136</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="E19" t="s">
+        <v>139</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="I19" t="s">
+        <v>54</v>
+      </c>
+      <c r="J19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K19" t="s">
+        <v>141</v>
+      </c>
+      <c r="L19" t="s">
+        <v>142</v>
+      </c>
+      <c r="M19" t="s">
+        <v>26</v>
+      </c>
+      <c r="O19" t="s">
+        <v>26</v>
+      </c>
+      <c r="P19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>143</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="E20" t="s">
+        <v>139</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="I20" t="s">
+        <v>145</v>
+      </c>
+      <c r="J20" t="s">
+        <v>34</v>
+      </c>
+      <c r="K20" t="s">
+        <v>146</v>
+      </c>
+      <c r="L20" t="s">
+        <v>147</v>
+      </c>
+      <c r="M20" t="s">
+        <v>26</v>
+      </c>
+      <c r="O20" t="s">
+        <v>26</v>
+      </c>
+      <c r="P20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>148</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D21" t="s">
+        <v>150</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="F21" t="s">
+        <v>52</v>
+      </c>
+      <c r="G21" t="s">
+        <v>53</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="I21" t="s">
+        <v>153</v>
+      </c>
+      <c r="J21" t="s">
+        <v>34</v>
+      </c>
+      <c r="K21" t="s">
+        <v>154</v>
+      </c>
+      <c r="L21" t="s">
+        <v>155</v>
+      </c>
+      <c r="M21" t="s">
+        <v>26</v>
+      </c>
+      <c r="O21" t="s">
+        <v>26</v>
+      </c>
+      <c r="P21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>156</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D22" t="s">
+        <v>158</v>
+      </c>
+      <c r="E22" t="s">
+        <v>159</v>
+      </c>
+      <c r="F22" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="I22" t="s">
+        <v>160</v>
+      </c>
+      <c r="J22" t="s">
+        <v>34</v>
+      </c>
+      <c r="K22" t="s">
+        <v>161</v>
+      </c>
+      <c r="L22" t="s">
+        <v>162</v>
+      </c>
+      <c r="M22" t="s">
+        <v>26</v>
+      </c>
+      <c r="O22" t="s">
+        <v>26</v>
+      </c>
+      <c r="P22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>163</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D23" t="s">
+        <v>158</v>
+      </c>
+      <c r="E23" t="s">
+        <v>159</v>
+      </c>
+      <c r="F23" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="I23" t="s">
+        <v>165</v>
+      </c>
+      <c r="J23" t="s">
+        <v>23</v>
+      </c>
+      <c r="K23" t="s">
+        <v>166</v>
+      </c>
+      <c r="L23" t="s">
+        <v>167</v>
+      </c>
+      <c r="M23" t="s">
+        <v>26</v>
+      </c>
+      <c r="O23" t="s">
+        <v>26</v>
+      </c>
+      <c r="P23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>168</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="E24" t="s">
+        <v>70</v>
+      </c>
+      <c r="F24" t="s">
+        <v>70</v>
+      </c>
+      <c r="G24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="I24" t="s">
+        <v>171</v>
+      </c>
+      <c r="J24" t="s">
+        <v>34</v>
+      </c>
+      <c r="K24" t="s">
+        <v>172</v>
+      </c>
+      <c r="L24" t="s">
+        <v>173</v>
+      </c>
+      <c r="M24" t="s">
+        <v>26</v>
+      </c>
+      <c r="O24" t="s">
+        <v>26</v>
+      </c>
+      <c r="P24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>174</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D25" t="s">
+        <v>176</v>
+      </c>
+      <c r="E25" t="s">
+        <v>177</v>
+      </c>
+      <c r="F25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G25" t="s">
+        <v>20</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I25" t="s">
+        <v>40</v>
+      </c>
+      <c r="J25" t="s">
+        <v>34</v>
+      </c>
+      <c r="K25" t="s">
+        <v>178</v>
+      </c>
+      <c r="L25" t="s">
+        <v>179</v>
+      </c>
+      <c r="M25" t="s">
+        <v>26</v>
+      </c>
+      <c r="N25" t="s">
+        <v>180</v>
+      </c>
+      <c r="O25" t="s">
+        <v>26</v>
+      </c>
+      <c r="P25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>181</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D26" t="s">
+        <v>183</v>
+      </c>
+      <c r="E26" t="s">
+        <v>184</v>
+      </c>
+      <c r="F26" t="s">
+        <v>70</v>
+      </c>
+      <c r="G26" t="s">
+        <v>70</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="I26" t="s">
+        <v>186</v>
+      </c>
+      <c r="J26" t="s">
+        <v>23</v>
+      </c>
+      <c r="K26" t="s">
+        <v>187</v>
+      </c>
+      <c r="L26" t="s">
+        <v>188</v>
+      </c>
+      <c r="M26" t="s">
+        <v>26</v>
+      </c>
+      <c r="O26" t="s">
+        <v>26</v>
+      </c>
+      <c r="P26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>189</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="D27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" t="s">
+        <v>31</v>
+      </c>
+      <c r="F27" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" t="s">
+        <v>20</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="I27" t="s">
+        <v>40</v>
+      </c>
+      <c r="J27" t="s">
+        <v>34</v>
+      </c>
+      <c r="K27" t="s">
+        <v>192</v>
+      </c>
+      <c r="M27" t="s">
+        <v>26</v>
+      </c>
+      <c r="O27" t="s">
+        <v>26</v>
+      </c>
+      <c r="P27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>193</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="D28" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="I28" t="s">
+        <v>196</v>
+      </c>
+      <c r="J28" t="s">
+        <v>34</v>
+      </c>
+      <c r="K28" t="s">
+        <v>197</v>
+      </c>
+      <c r="L28" t="s">
+        <v>198</v>
+      </c>
+      <c r="M28" t="s">
+        <v>26</v>
+      </c>
+      <c r="O28" t="s">
+        <v>26</v>
+      </c>
+      <c r="P28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>199</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D29" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" t="s">
+        <v>31</v>
+      </c>
+      <c r="F29" t="s">
+        <v>19</v>
+      </c>
+      <c r="G29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="I29" t="s">
+        <v>202</v>
+      </c>
+      <c r="J29" t="s">
+        <v>34</v>
+      </c>
+      <c r="K29" t="s">
+        <v>203</v>
+      </c>
+      <c r="M29" t="s">
+        <v>26</v>
+      </c>
+      <c r="O29" t="s">
+        <v>26</v>
+      </c>
+      <c r="P29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D30" t="s">
+        <v>206</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="F30" t="s">
+        <v>70</v>
+      </c>
+      <c r="G30" t="s">
+        <v>20</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="I30" t="s">
+        <v>208</v>
+      </c>
+      <c r="J30" t="s">
+        <v>34</v>
+      </c>
+      <c r="K30" t="s">
+        <v>209</v>
+      </c>
+      <c r="L30" t="s">
+        <v>210</v>
+      </c>
+      <c r="M30" t="s">
+        <v>26</v>
+      </c>
+      <c r="O30" t="s">
+        <v>26</v>
+      </c>
+      <c r="P30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>211</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="D31" t="s">
+        <v>213</v>
+      </c>
+      <c r="E31" t="s">
+        <v>214</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G31" t="s">
+        <v>20</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="I31" t="s">
+        <v>196</v>
+      </c>
+      <c r="J31" t="s">
+        <v>34</v>
+      </c>
+      <c r="K31" t="s">
+        <v>215</v>
+      </c>
+      <c r="L31" t="s">
+        <v>216</v>
+      </c>
+      <c r="M31" t="s">
+        <v>26</v>
+      </c>
+      <c r="O31" t="s">
+        <v>26</v>
+      </c>
+      <c r="P31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>217</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="D32" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32" t="s">
+        <v>31</v>
+      </c>
+      <c r="F32" t="s">
+        <v>19</v>
+      </c>
+      <c r="G32" t="s">
+        <v>20</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="I32" t="s">
+        <v>40</v>
+      </c>
+      <c r="J32" t="s">
+        <v>34</v>
+      </c>
+      <c r="K32" t="s">
+        <v>220</v>
+      </c>
+      <c r="L32" t="s">
+        <v>221</v>
+      </c>
+      <c r="M32" t="s">
+        <v>26</v>
+      </c>
+      <c r="O32" t="s">
+        <v>26</v>
+      </c>
+      <c r="P32" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>222</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D33" t="s">
+        <v>224</v>
+      </c>
+      <c r="E33" t="s">
+        <v>225</v>
+      </c>
+      <c r="F33" t="s">
+        <v>19</v>
+      </c>
+      <c r="G33" t="s">
+        <v>20</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="I33" t="s">
+        <v>226</v>
+      </c>
+      <c r="J33" t="s">
+        <v>23</v>
+      </c>
+      <c r="K33" t="s">
+        <v>227</v>
+      </c>
+      <c r="L33" t="s">
+        <v>228</v>
+      </c>
+      <c r="M33" t="s">
+        <v>26</v>
+      </c>
+      <c r="O33" t="s">
+        <v>26</v>
+      </c>
+      <c r="P33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>229</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D34" t="s">
+        <v>231</v>
+      </c>
+      <c r="E34" t="s">
+        <v>232</v>
+      </c>
+      <c r="F34" t="s">
+        <v>70</v>
+      </c>
+      <c r="G34" t="s">
+        <v>53</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="I34" t="s">
+        <v>234</v>
+      </c>
+      <c r="J34" t="s">
+        <v>23</v>
+      </c>
+      <c r="K34" t="s">
+        <v>235</v>
+      </c>
+      <c r="L34" t="s">
+        <v>236</v>
+      </c>
+      <c r="M34" t="s">
+        <v>26</v>
+      </c>
+      <c r="O34" t="s">
+        <v>26</v>
+      </c>
+      <c r="P34" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>237</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="E35" t="s">
+        <v>240</v>
+      </c>
+      <c r="F35" t="s">
+        <v>241</v>
+      </c>
+      <c r="G35" t="s">
+        <v>20</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="I35" t="s">
+        <v>243</v>
+      </c>
+      <c r="J35" t="s">
+        <v>34</v>
+      </c>
+      <c r="K35" t="s">
+        <v>244</v>
+      </c>
+      <c r="L35" t="s">
+        <v>245</v>
+      </c>
+      <c r="M35" t="s">
+        <v>26</v>
+      </c>
+      <c r="N35" t="s">
+        <v>246</v>
+      </c>
+      <c r="O35" t="s">
+        <v>26</v>
+      </c>
+      <c r="P35" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>247</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="D36" t="s">
+        <v>249</v>
+      </c>
+      <c r="E36" t="s">
+        <v>250</v>
+      </c>
+      <c r="F36" t="s">
+        <v>70</v>
+      </c>
+      <c r="G36" t="s">
+        <v>70</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="I36" t="s">
+        <v>252</v>
+      </c>
+      <c r="J36" t="s">
+        <v>34</v>
+      </c>
+      <c r="K36" t="s">
+        <v>253</v>
+      </c>
+      <c r="L36" t="s">
+        <v>254</v>
+      </c>
+      <c r="M36" t="s">
+        <v>26</v>
+      </c>
+      <c r="O36" t="s">
+        <v>26</v>
+      </c>
+      <c r="P36" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>255</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D37" t="s">
+        <v>257</v>
+      </c>
+      <c r="E37" t="s">
+        <v>69</v>
+      </c>
+      <c r="F37" t="s">
+        <v>70</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="I37" t="s">
+        <v>259</v>
+      </c>
+      <c r="J37" t="s">
+        <v>34</v>
+      </c>
+      <c r="K37" t="s">
+        <v>260</v>
+      </c>
+      <c r="M37" t="s">
+        <v>26</v>
+      </c>
+      <c r="N37" t="s">
+        <v>261</v>
+      </c>
+      <c r="O37" t="s">
+        <v>26</v>
+      </c>
+      <c r="P37" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>262</v>
+      </c>
+      <c r="C38" t="s">
+        <v>263</v>
+      </c>
+      <c r="D38" t="s">
+        <v>264</v>
+      </c>
+      <c r="E38" t="s">
+        <v>69</v>
+      </c>
+      <c r="F38" t="s">
+        <v>70</v>
+      </c>
+      <c r="G38" t="s">
+        <v>70</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="I38" t="s">
+        <v>266</v>
+      </c>
+      <c r="J38" t="s">
+        <v>34</v>
+      </c>
+      <c r="K38" t="s">
+        <v>267</v>
+      </c>
+      <c r="L38" t="s">
+        <v>268</v>
+      </c>
+      <c r="M38" t="s">
+        <v>26</v>
+      </c>
+      <c r="N38" t="s">
+        <v>269</v>
+      </c>
+      <c r="O38" t="s">
+        <v>26</v>
+      </c>
+      <c r="P38" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>270</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="D39" t="s">
+        <v>272</v>
+      </c>
+      <c r="E39" t="s">
+        <v>273</v>
+      </c>
+      <c r="F39" t="s">
+        <v>84</v>
+      </c>
+      <c r="G39" t="s">
+        <v>53</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="I39" t="s">
+        <v>40</v>
+      </c>
+      <c r="J39" t="s">
+        <v>34</v>
+      </c>
+      <c r="K39" t="s">
+        <v>275</v>
+      </c>
+      <c r="L39" t="s">
+        <v>276</v>
+      </c>
+      <c r="M39" t="s">
+        <v>26</v>
+      </c>
+      <c r="N39" t="s">
+        <v>277</v>
+      </c>
+      <c r="O39" t="s">
+        <v>26</v>
+      </c>
+      <c r="P39" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>278</v>
+      </c>
+      <c r="C40" t="s">
+        <v>279</v>
+      </c>
+      <c r="D40" t="s">
+        <v>280</v>
+      </c>
+      <c r="E40" t="s">
+        <v>281</v>
+      </c>
+      <c r="F40" t="s">
+        <v>281</v>
+      </c>
+      <c r="G40" t="s">
+        <v>53</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="I40" t="s">
+        <v>40</v>
+      </c>
+      <c r="J40" t="s">
+        <v>34</v>
+      </c>
+      <c r="K40" t="s">
+        <v>282</v>
+      </c>
+      <c r="L40" t="s">
+        <v>283</v>
+      </c>
+      <c r="M40" t="s">
+        <v>26</v>
+      </c>
+      <c r="N40" t="s">
+        <v>277</v>
+      </c>
+      <c r="O40" t="s">
+        <v>26</v>
+      </c>
+      <c r="P40" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>284</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="D41" t="s">
+        <v>113</v>
+      </c>
+      <c r="E41" t="s">
+        <v>31</v>
+      </c>
+      <c r="F41" t="s">
+        <v>19</v>
+      </c>
+      <c r="G41" t="s">
+        <v>20</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="I41" t="s">
+        <v>40</v>
+      </c>
+      <c r="J41" t="s">
+        <v>34</v>
+      </c>
+      <c r="K41" t="s">
+        <v>286</v>
+      </c>
+      <c r="M41" t="s">
+        <v>26</v>
+      </c>
+      <c r="N41" t="s">
+        <v>287</v>
+      </c>
+      <c r="O41" t="s">
+        <v>26</v>
+      </c>
+      <c r="P41" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>288</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="D42" t="s">
+        <v>290</v>
+      </c>
+      <c r="E42" t="s">
+        <v>70</v>
+      </c>
+      <c r="F42" t="s">
+        <v>70</v>
+      </c>
+      <c r="G42" t="s">
+        <v>70</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="I42" t="s">
+        <v>40</v>
+      </c>
+      <c r="J42" t="s">
+        <v>34</v>
+      </c>
+      <c r="K42" t="s">
+        <v>292</v>
+      </c>
+      <c r="M42" t="s">
+        <v>26</v>
+      </c>
+      <c r="N42" t="s">
+        <v>293</v>
+      </c>
+      <c r="O42" t="s">
+        <v>26</v>
+      </c>
+      <c r="P42" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>294</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="D43" t="s">
+        <v>296</v>
+      </c>
+      <c r="E43" t="s">
+        <v>69</v>
+      </c>
+      <c r="F43" t="s">
+        <v>70</v>
+      </c>
+      <c r="G43" t="s">
+        <v>70</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="I43" t="s">
+        <v>40</v>
+      </c>
+      <c r="J43" t="s">
+        <v>34</v>
+      </c>
+      <c r="K43" t="s">
+        <v>297</v>
+      </c>
+      <c r="M43" t="s">
+        <v>26</v>
+      </c>
+      <c r="N43" t="s">
+        <v>298</v>
+      </c>
+      <c r="O43" t="s">
+        <v>26</v>
+      </c>
+      <c r="P43" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>299</v>
+      </c>
+      <c r="C44" t="s">
+        <v>300</v>
+      </c>
+      <c r="D44" t="s">
+        <v>301</v>
+      </c>
+      <c r="E44" t="s">
+        <v>69</v>
+      </c>
+      <c r="F44" t="s">
+        <v>70</v>
+      </c>
+      <c r="G44" t="s">
+        <v>70</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="I44" t="s">
+        <v>40</v>
+      </c>
+      <c r="J44" t="s">
+        <v>34</v>
+      </c>
+      <c r="K44" t="s">
+        <v>303</v>
+      </c>
+      <c r="M44" t="s">
+        <v>26</v>
+      </c>
+      <c r="N44" t="s">
+        <v>304</v>
+      </c>
+      <c r="O44" t="s">
+        <v>26</v>
+      </c>
+      <c r="P44" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>305</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="D45" t="s">
+        <v>30</v>
+      </c>
+      <c r="E45" t="s">
+        <v>31</v>
+      </c>
+      <c r="F45" t="s">
+        <v>19</v>
+      </c>
+      <c r="G45" t="s">
+        <v>20</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="I45" t="s">
+        <v>40</v>
+      </c>
+      <c r="J45" t="s">
+        <v>34</v>
+      </c>
+      <c r="K45" t="s">
+        <v>308</v>
+      </c>
+      <c r="L45" t="s">
+        <v>309</v>
+      </c>
+      <c r="M45" t="s">
+        <v>26</v>
+      </c>
+      <c r="N45" t="s">
+        <v>310</v>
+      </c>
+      <c r="O45" t="s">
+        <v>26</v>
+      </c>
+      <c r="P45" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>311</v>
+      </c>
+      <c r="C46" t="s">
+        <v>312</v>
+      </c>
+      <c r="D46" t="s">
+        <v>313</v>
+      </c>
+      <c r="E46" t="s">
+        <v>314</v>
+      </c>
+      <c r="F46" t="s">
+        <v>70</v>
+      </c>
+      <c r="G46" t="s">
+        <v>70</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="I46" t="s">
+        <v>40</v>
+      </c>
+      <c r="J46" t="s">
+        <v>34</v>
+      </c>
+      <c r="K46" t="s">
+        <v>315</v>
+      </c>
+      <c r="M46" t="s">
+        <v>26</v>
+      </c>
+      <c r="N46" t="s">
+        <v>316</v>
+      </c>
+      <c r="O46" t="s">
+        <v>26</v>
+      </c>
+      <c r="P46" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="D47" t="s">
+        <v>18</v>
+      </c>
+      <c r="E47" t="s">
+        <v>19</v>
+      </c>
+      <c r="F47" t="s">
+        <v>19</v>
+      </c>
+      <c r="G47" t="s">
+        <v>20</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="I47" t="s">
+        <v>40</v>
+      </c>
+      <c r="J47" t="s">
+        <v>34</v>
+      </c>
+      <c r="K47" t="s">
+        <v>320</v>
+      </c>
+      <c r="M47" t="s">
+        <v>321</v>
+      </c>
+      <c r="O47" t="s">
+        <v>322</v>
+      </c>
+      <c r="P47" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>323</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="D48" t="s">
+        <v>325</v>
+      </c>
+      <c r="E48" t="s">
+        <v>31</v>
+      </c>
+      <c r="F48" t="s">
+        <v>19</v>
+      </c>
+      <c r="G48" t="s">
+        <v>20</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="I48" t="s">
+        <v>327</v>
+      </c>
+      <c r="J48" t="s">
+        <v>23</v>
+      </c>
+      <c r="K48" t="s">
+        <v>328</v>
+      </c>
+      <c r="L48" t="s">
+        <v>329</v>
+      </c>
+      <c r="M48" t="s">
+        <v>321</v>
+      </c>
+      <c r="O48" t="s">
+        <v>322</v>
+      </c>
+      <c r="P48" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>330</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="D49" t="s">
+        <v>113</v>
+      </c>
+      <c r="E49" t="s">
+        <v>31</v>
+      </c>
+      <c r="F49" t="s">
+        <v>19</v>
+      </c>
+      <c r="G49" t="s">
+        <v>20</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="I49" t="s">
+        <v>40</v>
+      </c>
+      <c r="J49" t="s">
+        <v>34</v>
+      </c>
+      <c r="M49" t="s">
+        <v>332</v>
+      </c>
+      <c r="O49" t="s">
+        <v>333</v>
+      </c>
+      <c r="P49" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>334</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="D50" t="s">
+        <v>336</v>
+      </c>
+      <c r="E50" t="s">
+        <v>337</v>
+      </c>
+      <c r="F50" t="s">
+        <v>19</v>
+      </c>
+      <c r="G50" t="s">
+        <v>20</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="I50" t="s">
+        <v>40</v>
+      </c>
+      <c r="J50" t="s">
+        <v>34</v>
+      </c>
+      <c r="L50" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="M50" t="s">
+        <v>340</v>
+      </c>
+      <c r="O50" t="s">
+        <v>333</v>
+      </c>
+      <c r="P50" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="D51" t="s">
+        <v>343</v>
+      </c>
+      <c r="E51" t="s">
+        <v>19</v>
+      </c>
+      <c r="F51" t="s">
+        <v>19</v>
+      </c>
+      <c r="G51" t="s">
+        <v>20</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="I51" t="s">
+        <v>345</v>
+      </c>
+      <c r="J51" t="s">
+        <v>34</v>
+      </c>
+      <c r="L51" t="s">
+        <v>346</v>
+      </c>
+      <c r="M51" t="s">
+        <v>347</v>
+      </c>
+      <c r="O51" t="s">
+        <v>40</v>
+      </c>
+      <c r="P51" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>348</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="D52" t="s">
+        <v>350</v>
+      </c>
+      <c r="E52" t="s">
+        <v>51</v>
+      </c>
+      <c r="F52" t="s">
+        <v>52</v>
+      </c>
+      <c r="G52" t="s">
+        <v>53</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="I52" t="s">
+        <v>352</v>
+      </c>
+      <c r="J52" t="s">
+        <v>23</v>
+      </c>
+      <c r="K52" t="s">
+        <v>353</v>
+      </c>
+      <c r="M52" t="s">
+        <v>354</v>
+      </c>
+      <c r="O52" t="s">
+        <v>355</v>
+      </c>
+      <c r="P52" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="D53" t="s">
+        <v>358</v>
+      </c>
+      <c r="E53" t="s">
+        <v>359</v>
+      </c>
+      <c r="F53" t="s">
+        <v>70</v>
+      </c>
+      <c r="G53" t="s">
+        <v>70</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J53" t="s">
+        <v>23</v>
+      </c>
+      <c r="K53" t="s">
+        <v>360</v>
+      </c>
+      <c r="L53" t="s">
+        <v>361</v>
+      </c>
+      <c r="M53" t="s">
+        <v>354</v>
+      </c>
+      <c r="O53" t="s">
+        <v>355</v>
+      </c>
+      <c r="P53" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="D54" t="s">
+        <v>364</v>
+      </c>
+      <c r="E54" t="s">
+        <v>365</v>
+      </c>
+      <c r="F54" t="s">
+        <v>366</v>
+      </c>
+      <c r="G54" t="s">
+        <v>85</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="I54" t="s">
+        <v>368</v>
+      </c>
+      <c r="J54" t="s">
+        <v>34</v>
+      </c>
+      <c r="K54" t="s">
+        <v>369</v>
+      </c>
+      <c r="L54" t="s">
+        <v>370</v>
+      </c>
+      <c r="M54" t="s">
+        <v>354</v>
+      </c>
+      <c r="O54" t="s">
+        <v>355</v>
+      </c>
+      <c r="P54" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>371</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="D55" t="s">
+        <v>40</v>
+      </c>
+      <c r="E55" t="s">
+        <v>70</v>
+      </c>
+      <c r="F55" t="s">
+        <v>70</v>
+      </c>
+      <c r="G55" t="s">
+        <v>70</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I55" t="s">
+        <v>373</v>
+      </c>
+      <c r="J55" t="s">
+        <v>23</v>
+      </c>
+      <c r="K55" t="s">
+        <v>374</v>
+      </c>
+      <c r="L55" t="s">
+        <v>375</v>
+      </c>
+      <c r="M55" t="s">
+        <v>354</v>
+      </c>
+      <c r="O55" t="s">
+        <v>355</v>
+      </c>
+      <c r="P55" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>40</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="D56" t="s">
+        <v>113</v>
+      </c>
+      <c r="E56" t="s">
+        <v>31</v>
+      </c>
+      <c r="F56" t="s">
+        <v>19</v>
+      </c>
+      <c r="G56" t="s">
+        <v>20</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I56" t="s">
+        <v>40</v>
+      </c>
+      <c r="J56" t="s">
+        <v>34</v>
+      </c>
+      <c r="K56" t="s">
+        <v>377</v>
+      </c>
+      <c r="M56" t="s">
+        <v>354</v>
+      </c>
+      <c r="O56" t="s">
+        <v>355</v>
+      </c>
+      <c r="P56" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>378</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="D57" t="s">
+        <v>113</v>
+      </c>
+      <c r="E57" t="s">
+        <v>31</v>
+      </c>
+      <c r="F57" t="s">
+        <v>19</v>
+      </c>
+      <c r="G57" t="s">
+        <v>20</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I57" t="s">
+        <v>40</v>
+      </c>
+      <c r="J57" t="s">
+        <v>23</v>
+      </c>
+      <c r="K57" t="s">
+        <v>380</v>
+      </c>
+      <c r="L57" t="s">
+        <v>381</v>
+      </c>
+      <c r="M57" t="s">
+        <v>354</v>
+      </c>
+      <c r="O57" t="s">
+        <v>355</v>
+      </c>
+      <c r="P57" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="D58" t="s">
+        <v>384</v>
+      </c>
+      <c r="E58" t="s">
+        <v>51</v>
+      </c>
+      <c r="F58" t="s">
+        <v>52</v>
+      </c>
+      <c r="G58" t="s">
+        <v>53</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I58" t="s">
+        <v>385</v>
+      </c>
+      <c r="J58" t="s">
+        <v>34</v>
+      </c>
+      <c r="K58" t="s">
+        <v>386</v>
+      </c>
+      <c r="L58" t="s">
+        <v>387</v>
+      </c>
+      <c r="M58" t="s">
+        <v>354</v>
+      </c>
+      <c r="O58" t="s">
+        <v>355</v>
+      </c>
+      <c r="P58" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="D59" t="s">
+        <v>390</v>
+      </c>
+      <c r="E59" t="s">
+        <v>281</v>
+      </c>
+      <c r="F59" t="s">
+        <v>281</v>
+      </c>
+      <c r="G59" t="s">
+        <v>53</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I59" t="s">
+        <v>391</v>
+      </c>
+      <c r="J59" t="s">
+        <v>34</v>
+      </c>
+      <c r="K59" t="s">
+        <v>392</v>
+      </c>
+      <c r="L59" t="s">
+        <v>393</v>
+      </c>
+      <c r="M59" t="s">
+        <v>354</v>
+      </c>
+      <c r="O59" t="s">
+        <v>355</v>
+      </c>
+      <c r="P59" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>394</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="D60" t="s">
+        <v>396</v>
+      </c>
+      <c r="E60" t="s">
+        <v>397</v>
+      </c>
+      <c r="F60" t="s">
+        <v>397</v>
+      </c>
+      <c r="G60" t="s">
+        <v>85</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I60" t="s">
+        <v>398</v>
+      </c>
+      <c r="J60" t="s">
+        <v>34</v>
+      </c>
+      <c r="K60" t="s">
+        <v>399</v>
+      </c>
+      <c r="L60" t="s">
+        <v>400</v>
+      </c>
+      <c r="M60" t="s">
+        <v>354</v>
+      </c>
+      <c r="O60" t="s">
+        <v>355</v>
+      </c>
+      <c r="P60" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="D61" t="s">
+        <v>403</v>
+      </c>
+      <c r="E61" t="s">
+        <v>19</v>
+      </c>
+      <c r="F61" t="s">
+        <v>19</v>
+      </c>
+      <c r="G61" t="s">
+        <v>20</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I61" t="s">
+        <v>404</v>
+      </c>
+      <c r="J61" t="s">
+        <v>23</v>
+      </c>
+      <c r="K61" t="s">
+        <v>405</v>
+      </c>
+      <c r="L61" t="s">
+        <v>406</v>
+      </c>
+      <c r="M61" t="s">
+        <v>354</v>
+      </c>
+      <c r="O61" t="s">
+        <v>355</v>
+      </c>
+      <c r="P61" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>40</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="D62" t="s">
+        <v>408</v>
+      </c>
+      <c r="E62" t="s">
+        <v>69</v>
+      </c>
+      <c r="F62" t="s">
+        <v>70</v>
+      </c>
+      <c r="G62" t="s">
+        <v>70</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I62" t="s">
+        <v>40</v>
+      </c>
+      <c r="J62" t="s">
+        <v>23</v>
+      </c>
+      <c r="K62" t="s">
+        <v>409</v>
+      </c>
+      <c r="M62" t="s">
+        <v>354</v>
+      </c>
+      <c r="N62" t="s">
+        <v>410</v>
+      </c>
+      <c r="O62" t="s">
+        <v>355</v>
+      </c>
+      <c r="P62" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="D63" t="s">
+        <v>413</v>
+      </c>
+      <c r="E63" t="s">
+        <v>397</v>
+      </c>
+      <c r="F63" t="s">
+        <v>414</v>
+      </c>
+      <c r="G63" t="s">
+        <v>85</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="I63" t="s">
+        <v>416</v>
+      </c>
+      <c r="J63" t="s">
+        <v>34</v>
+      </c>
+      <c r="K63" t="s">
+        <v>417</v>
+      </c>
+      <c r="L63" t="s">
+        <v>418</v>
+      </c>
+      <c r="M63" t="s">
+        <v>354</v>
+      </c>
+      <c r="O63" t="s">
+        <v>355</v>
+      </c>
+      <c r="P63" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="D64" t="s">
+        <v>421</v>
+      </c>
+      <c r="E64" t="s">
+        <v>69</v>
+      </c>
+      <c r="F64" t="s">
+        <v>52</v>
+      </c>
+      <c r="G64" t="s">
+        <v>53</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I64" t="s">
+        <v>422</v>
+      </c>
+      <c r="J64" t="s">
+        <v>34</v>
+      </c>
+      <c r="K64" t="s">
+        <v>423</v>
+      </c>
+      <c r="L64" t="s">
+        <v>424</v>
+      </c>
+      <c r="M64" t="s">
+        <v>354</v>
+      </c>
+      <c r="O64" t="s">
+        <v>355</v>
+      </c>
+      <c r="P64" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="D65" t="s">
+        <v>427</v>
+      </c>
+      <c r="E65" t="s">
+        <v>69</v>
+      </c>
+      <c r="F65" t="s">
+        <v>70</v>
+      </c>
+      <c r="G65" t="s">
+        <v>70</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="I65" t="s">
+        <v>429</v>
+      </c>
+      <c r="J65" t="s">
+        <v>23</v>
+      </c>
+      <c r="K65" t="s">
+        <v>430</v>
+      </c>
+      <c r="L65" t="s">
+        <v>431</v>
+      </c>
+      <c r="M65" t="s">
+        <v>354</v>
+      </c>
+      <c r="O65" t="s">
+        <v>355</v>
+      </c>
+      <c r="P65" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="D66" t="s">
+        <v>434</v>
+      </c>
+      <c r="E66" t="s">
+        <v>366</v>
+      </c>
+      <c r="F66" t="s">
+        <v>366</v>
+      </c>
+      <c r="G66" t="s">
+        <v>85</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I66" t="s">
+        <v>435</v>
+      </c>
+      <c r="J66" t="s">
+        <v>23</v>
+      </c>
+      <c r="K66" t="s">
+        <v>436</v>
+      </c>
+      <c r="M66" t="s">
+        <v>354</v>
+      </c>
+      <c r="O66" t="s">
+        <v>355</v>
+      </c>
+      <c r="P66" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="D67" t="s">
+        <v>439</v>
+      </c>
+      <c r="E67" t="s">
+        <v>281</v>
+      </c>
+      <c r="F67" t="s">
+        <v>281</v>
+      </c>
+      <c r="G67" t="s">
+        <v>53</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I67" t="s">
+        <v>40</v>
+      </c>
+      <c r="J67" t="s">
+        <v>34</v>
+      </c>
+      <c r="K67" t="s">
+        <v>440</v>
+      </c>
+      <c r="L67" t="s">
+        <v>441</v>
+      </c>
+      <c r="M67" t="s">
+        <v>354</v>
+      </c>
+      <c r="O67" t="s">
+        <v>355</v>
+      </c>
+      <c r="P67" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="D68" t="s">
+        <v>444</v>
+      </c>
+      <c r="E68" t="s">
+        <v>69</v>
+      </c>
+      <c r="F68" t="s">
+        <v>414</v>
+      </c>
+      <c r="G68" t="s">
+        <v>85</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I68" t="s">
+        <v>40</v>
+      </c>
+      <c r="J68" t="s">
+        <v>23</v>
+      </c>
+      <c r="K68" t="s">
+        <v>445</v>
+      </c>
+      <c r="L68" t="s">
+        <v>446</v>
+      </c>
+      <c r="M68" t="s">
+        <v>354</v>
+      </c>
+      <c r="O68" t="s">
+        <v>355</v>
+      </c>
+      <c r="P68" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="D69" t="s">
+        <v>449</v>
+      </c>
+      <c r="E69" t="s">
+        <v>450</v>
+      </c>
+      <c r="F69" t="s">
+        <v>450</v>
+      </c>
+      <c r="G69" t="s">
+        <v>85</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I69" t="s">
+        <v>40</v>
+      </c>
+      <c r="J69" t="s">
+        <v>34</v>
+      </c>
+      <c r="K69" t="s">
+        <v>451</v>
+      </c>
+      <c r="L69" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="M69" t="s">
+        <v>354</v>
+      </c>
+      <c r="O69" t="s">
+        <v>355</v>
+      </c>
+      <c r="P69" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="D70" t="s">
+        <v>30</v>
+      </c>
+      <c r="E70" t="s">
+        <v>31</v>
+      </c>
+      <c r="F70" t="s">
+        <v>19</v>
+      </c>
+      <c r="G70" t="s">
+        <v>20</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="I70" t="s">
+        <v>40</v>
+      </c>
+      <c r="J70" t="s">
+        <v>34</v>
+      </c>
+      <c r="K70" t="s">
+        <v>456</v>
+      </c>
+      <c r="L70" t="s">
+        <v>457</v>
+      </c>
+      <c r="M70" t="s">
+        <v>354</v>
+      </c>
+      <c r="O70" t="s">
+        <v>355</v>
+      </c>
+      <c r="P70" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="D71" t="s">
+        <v>113</v>
+      </c>
+      <c r="E71" t="s">
+        <v>31</v>
+      </c>
+      <c r="F71" t="s">
+        <v>19</v>
+      </c>
+      <c r="G71" t="s">
+        <v>20</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="I71" t="s">
+        <v>40</v>
+      </c>
+      <c r="J71" t="s">
+        <v>34</v>
+      </c>
+      <c r="K71" t="s">
+        <v>460</v>
+      </c>
+      <c r="M71" t="s">
+        <v>354</v>
+      </c>
+      <c r="O71" t="s">
+        <v>355</v>
+      </c>
+      <c r="P71" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="D72" t="s">
+        <v>113</v>
+      </c>
+      <c r="E72" t="s">
+        <v>31</v>
+      </c>
+      <c r="F72" t="s">
+        <v>19</v>
+      </c>
+      <c r="G72" t="s">
+        <v>20</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="I72" t="s">
+        <v>40</v>
+      </c>
+      <c r="J72" t="s">
+        <v>34</v>
+      </c>
+      <c r="K72" t="s">
+        <v>464</v>
+      </c>
+      <c r="M72" t="s">
+        <v>354</v>
+      </c>
+      <c r="O72" t="s">
+        <v>355</v>
+      </c>
+      <c r="P72" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="D73" t="s">
+        <v>467</v>
+      </c>
+      <c r="E73" t="s">
+        <v>51</v>
+      </c>
+      <c r="F73" t="s">
+        <v>52</v>
+      </c>
+      <c r="G73" t="s">
+        <v>53</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="I73" t="s">
+        <v>468</v>
+      </c>
+      <c r="J73" t="s">
+        <v>34</v>
+      </c>
+      <c r="K73" t="s">
+        <v>469</v>
+      </c>
+      <c r="L73" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="M73" t="s">
+        <v>354</v>
+      </c>
+      <c r="O73" t="s">
+        <v>355</v>
+      </c>
+      <c r="P73" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="D74" t="s">
+        <v>60</v>
+      </c>
+      <c r="E74" t="s">
+        <v>61</v>
+      </c>
+      <c r="F74" t="s">
+        <v>52</v>
+      </c>
+      <c r="G74" t="s">
+        <v>53</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="I74" t="s">
+        <v>473</v>
+      </c>
+      <c r="J74" t="s">
+        <v>23</v>
+      </c>
+      <c r="K74" t="s">
+        <v>474</v>
+      </c>
+      <c r="M74" t="s">
+        <v>354</v>
+      </c>
+      <c r="O74" t="s">
+        <v>355</v>
+      </c>
+      <c r="P74" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="D75" t="s">
+        <v>60</v>
+      </c>
+      <c r="E75" t="s">
+        <v>61</v>
+      </c>
+      <c r="F75" t="s">
+        <v>52</v>
+      </c>
+      <c r="G75" t="s">
+        <v>53</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="I75" t="s">
+        <v>477</v>
+      </c>
+      <c r="J75" t="s">
+        <v>34</v>
+      </c>
+      <c r="K75" t="s">
+        <v>478</v>
+      </c>
+      <c r="M75" t="s">
+        <v>354</v>
+      </c>
+      <c r="O75" t="s">
+        <v>355</v>
+      </c>
+      <c r="P75" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="D76" t="s">
+        <v>481</v>
+      </c>
+      <c r="E76" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="F76" t="s">
+        <v>483</v>
+      </c>
+      <c r="G76" t="s">
+        <v>85</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="I76" t="s">
+        <v>484</v>
+      </c>
+      <c r="J76" t="s">
+        <v>34</v>
+      </c>
+      <c r="K76" t="s">
+        <v>485</v>
+      </c>
+      <c r="L76" t="s">
+        <v>486</v>
+      </c>
+      <c r="M76" t="s">
+        <v>354</v>
+      </c>
+      <c r="O76" t="s">
+        <v>355</v>
+      </c>
+      <c r="P76" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="D77" t="s">
+        <v>364</v>
+      </c>
+      <c r="E77" t="s">
+        <v>365</v>
+      </c>
+      <c r="F77" t="s">
+        <v>366</v>
+      </c>
+      <c r="G77" t="s">
+        <v>85</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="I77" t="s">
+        <v>489</v>
+      </c>
+      <c r="J77" t="s">
+        <v>34</v>
+      </c>
+      <c r="K77" t="s">
+        <v>490</v>
+      </c>
+      <c r="M77" t="s">
+        <v>354</v>
+      </c>
+      <c r="O77" t="s">
+        <v>355</v>
+      </c>
+      <c r="P77" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="D78" t="s">
+        <v>364</v>
+      </c>
+      <c r="E78" t="s">
+        <v>365</v>
+      </c>
+      <c r="F78" t="s">
+        <v>366</v>
+      </c>
+      <c r="G78" t="s">
+        <v>85</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="I78" t="s">
+        <v>489</v>
+      </c>
+      <c r="J78" t="s">
+        <v>23</v>
+      </c>
+      <c r="K78" t="s">
+        <v>493</v>
+      </c>
+      <c r="M78" t="s">
+        <v>354</v>
+      </c>
+      <c r="O78" t="s">
+        <v>355</v>
+      </c>
+      <c r="P78" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="D79" t="s">
+        <v>384</v>
+      </c>
+      <c r="E79" t="s">
+        <v>51</v>
+      </c>
+      <c r="F79" t="s">
+        <v>52</v>
+      </c>
+      <c r="G79" t="s">
+        <v>53</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="I79" t="s">
+        <v>468</v>
+      </c>
+      <c r="J79" t="s">
+        <v>34</v>
+      </c>
+      <c r="K79" t="s">
+        <v>494</v>
+      </c>
+      <c r="L79" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="M79" t="s">
+        <v>354</v>
+      </c>
+      <c r="O79" t="s">
+        <v>355</v>
+      </c>
+      <c r="P79" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="D80" t="s">
+        <v>498</v>
+      </c>
+      <c r="E80" t="s">
+        <v>51</v>
+      </c>
+      <c r="F80" t="s">
+        <v>52</v>
+      </c>
+      <c r="G80" t="s">
+        <v>53</v>
+      </c>
+      <c r="H80" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="I80" t="s">
+        <v>500</v>
+      </c>
+      <c r="J80" t="s">
+        <v>34</v>
+      </c>
+      <c r="K80" t="s">
+        <v>501</v>
+      </c>
+      <c r="L80" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="M80" t="s">
+        <v>354</v>
+      </c>
+      <c r="O80" t="s">
+        <v>355</v>
+      </c>
+      <c r="P80" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="D81" t="s">
+        <v>505</v>
+      </c>
+      <c r="E81" t="s">
+        <v>103</v>
+      </c>
+      <c r="F81" t="s">
+        <v>52</v>
+      </c>
+      <c r="G81" t="s">
+        <v>53</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="I81" t="s">
+        <v>506</v>
+      </c>
+      <c r="J81" t="s">
+        <v>34</v>
+      </c>
+      <c r="K81" t="s">
+        <v>507</v>
+      </c>
+      <c r="M81" t="s">
+        <v>354</v>
+      </c>
+      <c r="O81" t="s">
+        <v>355</v>
+      </c>
+      <c r="P81" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="D82" t="s">
+        <v>510</v>
+      </c>
+      <c r="E82" t="s">
+        <v>69</v>
+      </c>
+      <c r="F82" t="s">
+        <v>70</v>
+      </c>
+      <c r="G82" t="s">
+        <v>70</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="I82" t="s">
+        <v>512</v>
+      </c>
+      <c r="J82" t="s">
+        <v>34</v>
+      </c>
+      <c r="K82" t="s">
+        <v>513</v>
+      </c>
+      <c r="L82" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="M82" t="s">
+        <v>354</v>
+      </c>
+      <c r="O82" t="s">
+        <v>355</v>
+      </c>
+      <c r="P82" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="D83" t="s">
+        <v>517</v>
+      </c>
+      <c r="E83" t="s">
+        <v>51</v>
+      </c>
+      <c r="F83" t="s">
+        <v>52</v>
+      </c>
+      <c r="G83" t="s">
+        <v>53</v>
+      </c>
+      <c r="H83" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="I83" t="s">
+        <v>40</v>
+      </c>
+      <c r="J83" t="s">
+        <v>34</v>
+      </c>
+      <c r="K83" t="s">
+        <v>519</v>
+      </c>
+      <c r="L83" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="M83" t="s">
+        <v>354</v>
+      </c>
+      <c r="O83" t="s">
+        <v>355</v>
+      </c>
+      <c r="P83" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="D84" t="s">
+        <v>523</v>
+      </c>
+      <c r="E84" t="s">
+        <v>281</v>
+      </c>
+      <c r="F84" t="s">
+        <v>281</v>
+      </c>
+      <c r="G84" t="s">
+        <v>53</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="I84" t="s">
+        <v>524</v>
+      </c>
+      <c r="J84" t="s">
+        <v>34</v>
+      </c>
+      <c r="K84" t="s">
+        <v>525</v>
+      </c>
+      <c r="L84" t="s">
+        <v>526</v>
+      </c>
+      <c r="M84" t="s">
+        <v>354</v>
+      </c>
+      <c r="O84" t="s">
+        <v>355</v>
+      </c>
+      <c r="P84" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="D85" t="s">
+        <v>529</v>
+      </c>
+      <c r="E85" t="s">
+        <v>530</v>
+      </c>
+      <c r="F85" t="s">
+        <v>84</v>
+      </c>
+      <c r="G85" t="s">
+        <v>53</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="I85" t="s">
+        <v>532</v>
+      </c>
+      <c r="J85" t="s">
+        <v>34</v>
+      </c>
+      <c r="K85" t="s">
+        <v>533</v>
+      </c>
+      <c r="L85" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="M85" t="s">
+        <v>354</v>
+      </c>
+      <c r="O85" t="s">
+        <v>355</v>
+      </c>
+      <c r="P85" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="D86" t="s">
+        <v>537</v>
+      </c>
+      <c r="E86" t="s">
+        <v>365</v>
+      </c>
+      <c r="F86" t="s">
+        <v>366</v>
+      </c>
+      <c r="G86" t="s">
+        <v>85</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="I86" t="s">
+        <v>40</v>
+      </c>
+      <c r="J86" t="s">
+        <v>23</v>
+      </c>
+      <c r="K86" t="s">
+        <v>538</v>
+      </c>
+      <c r="L86" t="s">
+        <v>539</v>
+      </c>
+      <c r="M86" t="s">
+        <v>354</v>
+      </c>
+      <c r="O86" t="s">
+        <v>355</v>
+      </c>
+      <c r="P86" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="D87" t="s">
+        <v>542</v>
+      </c>
+      <c r="E87" t="s">
+        <v>365</v>
+      </c>
+      <c r="F87" t="s">
+        <v>366</v>
+      </c>
+      <c r="G87" t="s">
+        <v>85</v>
+      </c>
+      <c r="H87" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="I87" t="s">
+        <v>544</v>
+      </c>
+      <c r="J87" t="s">
+        <v>34</v>
+      </c>
+      <c r="K87" t="s">
+        <v>545</v>
+      </c>
+      <c r="M87" t="s">
+        <v>354</v>
+      </c>
+      <c r="O87" t="s">
+        <v>355</v>
+      </c>
+      <c r="P87" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="D88" t="s">
+        <v>542</v>
+      </c>
+      <c r="E88" t="s">
+        <v>365</v>
+      </c>
+      <c r="F88" t="s">
+        <v>366</v>
+      </c>
+      <c r="G88" t="s">
+        <v>85</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="I88" t="s">
+        <v>544</v>
+      </c>
+      <c r="J88" t="s">
+        <v>34</v>
+      </c>
+      <c r="K88" t="s">
+        <v>547</v>
+      </c>
+      <c r="M88" t="s">
+        <v>354</v>
+      </c>
+      <c r="O88" t="s">
+        <v>355</v>
+      </c>
+      <c r="P88" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="D89" t="s">
+        <v>550</v>
+      </c>
+      <c r="E89" t="s">
+        <v>70</v>
+      </c>
+      <c r="F89" t="s">
+        <v>70</v>
+      </c>
+      <c r="G89" t="s">
+        <v>70</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="I89" t="s">
+        <v>551</v>
+      </c>
+      <c r="J89" t="s">
+        <v>34</v>
+      </c>
+      <c r="K89" t="s">
+        <v>552</v>
+      </c>
+      <c r="M89" t="s">
+        <v>354</v>
+      </c>
+      <c r="O89" t="s">
+        <v>355</v>
+      </c>
+      <c r="P89" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="D90" t="s">
+        <v>555</v>
+      </c>
+      <c r="E90" t="s">
+        <v>69</v>
+      </c>
+      <c r="F90" t="s">
+        <v>483</v>
+      </c>
+      <c r="G90" t="s">
+        <v>85</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="I90" t="s">
+        <v>556</v>
+      </c>
+      <c r="J90" t="s">
+        <v>34</v>
+      </c>
+      <c r="K90" t="s">
+        <v>557</v>
+      </c>
+      <c r="M90" t="s">
+        <v>354</v>
+      </c>
+      <c r="O90" t="s">
+        <v>355</v>
+      </c>
+      <c r="P90" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="D91" t="s">
+        <v>555</v>
+      </c>
+      <c r="E91" t="s">
+        <v>69</v>
+      </c>
+      <c r="F91" t="s">
+        <v>483</v>
+      </c>
+      <c r="G91" t="s">
+        <v>85</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="I91" t="s">
+        <v>556</v>
+      </c>
+      <c r="J91" t="s">
+        <v>34</v>
+      </c>
+      <c r="K91" t="s">
+        <v>560</v>
+      </c>
+      <c r="L91" t="s">
+        <v>561</v>
+      </c>
+      <c r="M91" t="s">
+        <v>354</v>
+      </c>
+      <c r="O91" t="s">
+        <v>355</v>
+      </c>
+      <c r="P91" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="D92" t="s">
+        <v>564</v>
+      </c>
+      <c r="E92" t="s">
+        <v>70</v>
+      </c>
+      <c r="F92" t="s">
+        <v>366</v>
+      </c>
+      <c r="G92" t="s">
+        <v>85</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="I92" t="s">
+        <v>565</v>
+      </c>
+      <c r="J92" t="s">
+        <v>34</v>
+      </c>
+      <c r="K92" t="s">
+        <v>566</v>
+      </c>
+      <c r="L92" t="s">
+        <v>567</v>
+      </c>
+      <c r="M92" t="s">
+        <v>354</v>
+      </c>
+      <c r="O92" t="s">
+        <v>355</v>
+      </c>
+      <c r="P92" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="D93" t="s">
+        <v>564</v>
+      </c>
+      <c r="E93" t="s">
+        <v>70</v>
+      </c>
+      <c r="F93" t="s">
+        <v>366</v>
+      </c>
+      <c r="G93" t="s">
+        <v>85</v>
+      </c>
+      <c r="H93" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="I93" t="s">
+        <v>570</v>
+      </c>
+      <c r="J93" t="s">
+        <v>23</v>
+      </c>
+      <c r="K93" t="s">
+        <v>571</v>
+      </c>
+      <c r="L93" t="s">
+        <v>572</v>
+      </c>
+      <c r="M93" t="s">
+        <v>354</v>
+      </c>
+      <c r="O93" t="s">
+        <v>355</v>
+      </c>
+      <c r="P93" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="D94" t="s">
+        <v>575</v>
+      </c>
+      <c r="E94" t="s">
+        <v>576</v>
+      </c>
+      <c r="F94" t="s">
+        <v>70</v>
+      </c>
+      <c r="G94" t="s">
+        <v>70</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="I94" t="s">
+        <v>577</v>
+      </c>
+      <c r="J94" t="s">
+        <v>34</v>
+      </c>
+      <c r="K94" t="s">
+        <v>578</v>
+      </c>
+      <c r="M94" t="s">
+        <v>354</v>
+      </c>
+      <c r="O94" t="s">
+        <v>355</v>
+      </c>
+      <c r="P94" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="D95" t="s">
+        <v>581</v>
+      </c>
+      <c r="E95" t="s">
+        <v>69</v>
+      </c>
+      <c r="F95" t="s">
+        <v>84</v>
+      </c>
+      <c r="G95" t="s">
+        <v>53</v>
+      </c>
+      <c r="H95" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="I95" t="s">
+        <v>583</v>
+      </c>
+      <c r="J95" t="s">
+        <v>34</v>
+      </c>
+      <c r="K95" t="s">
+        <v>584</v>
+      </c>
+      <c r="L95" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="M95" t="s">
+        <v>354</v>
+      </c>
+      <c r="O95" t="s">
+        <v>355</v>
+      </c>
+      <c r="P95" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="D96" t="s">
+        <v>588</v>
+      </c>
+      <c r="E96" t="s">
+        <v>69</v>
+      </c>
+      <c r="F96" t="s">
+        <v>70</v>
+      </c>
+      <c r="G96" t="s">
+        <v>70</v>
+      </c>
+      <c r="H96" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="I96" t="s">
+        <v>589</v>
+      </c>
+      <c r="J96" t="s">
+        <v>23</v>
+      </c>
+      <c r="K96" t="s">
+        <v>590</v>
+      </c>
+      <c r="L96" t="s">
+        <v>591</v>
+      </c>
+      <c r="M96" t="s">
+        <v>354</v>
+      </c>
+      <c r="O96" t="s">
+        <v>355</v>
+      </c>
+      <c r="P96" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="D97" t="s">
+        <v>594</v>
+      </c>
+      <c r="E97" t="s">
+        <v>595</v>
+      </c>
+      <c r="F97" t="s">
+        <v>52</v>
+      </c>
+      <c r="G97" t="s">
+        <v>53</v>
+      </c>
+      <c r="H97" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="I97" t="s">
+        <v>40</v>
+      </c>
+      <c r="J97" t="s">
+        <v>34</v>
+      </c>
+      <c r="K97" t="s">
+        <v>596</v>
+      </c>
+      <c r="L97" t="s">
+        <v>597</v>
+      </c>
+      <c r="M97" t="s">
+        <v>354</v>
+      </c>
+      <c r="O97" t="s">
+        <v>355</v>
+      </c>
+      <c r="P97" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="D98" t="s">
+        <v>257</v>
+      </c>
+      <c r="E98" t="s">
+        <v>69</v>
+      </c>
+      <c r="F98" t="s">
+        <v>70</v>
+      </c>
+      <c r="G98" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H98" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="I98" t="s">
+        <v>601</v>
+      </c>
+      <c r="J98" t="s">
+        <v>23</v>
+      </c>
+      <c r="K98" t="s">
+        <v>602</v>
+      </c>
+      <c r="M98" t="s">
+        <v>354</v>
+      </c>
+      <c r="O98" t="s">
+        <v>355</v>
+      </c>
+      <c r="P98" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="D99" t="s">
+        <v>413</v>
+      </c>
+      <c r="E99" t="s">
+        <v>397</v>
+      </c>
+      <c r="F99" t="s">
+        <v>414</v>
+      </c>
+      <c r="G99" t="s">
+        <v>85</v>
+      </c>
+      <c r="H99" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="I99" t="s">
+        <v>40</v>
+      </c>
+      <c r="J99" t="s">
+        <v>34</v>
+      </c>
+      <c r="K99" t="s">
+        <v>606</v>
+      </c>
+      <c r="M99" t="s">
+        <v>354</v>
+      </c>
+      <c r="O99" t="s">
+        <v>355</v>
+      </c>
+      <c r="P99" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="D100" t="s">
+        <v>609</v>
+      </c>
+      <c r="E100" t="s">
+        <v>69</v>
+      </c>
+      <c r="F100" t="s">
+        <v>70</v>
+      </c>
+      <c r="G100" t="s">
+        <v>70</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="I100" t="s">
+        <v>40</v>
+      </c>
+      <c r="J100" t="s">
+        <v>34</v>
+      </c>
+      <c r="K100" t="s">
+        <v>610</v>
+      </c>
+      <c r="M100" t="s">
+        <v>354</v>
+      </c>
+      <c r="O100" t="s">
+        <v>355</v>
+      </c>
+      <c r="P100" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>611</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>612</v>
+      </c>
+      <c r="D101" t="s">
+        <v>296</v>
+      </c>
+      <c r="E101" t="s">
+        <v>69</v>
+      </c>
+      <c r="F101" t="s">
+        <v>70</v>
+      </c>
+      <c r="G101" t="s">
+        <v>70</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="I101" t="s">
+        <v>40</v>
+      </c>
+      <c r="J101" t="s">
+        <v>23</v>
+      </c>
+      <c r="K101" t="s">
+        <v>613</v>
+      </c>
+      <c r="M101" t="s">
+        <v>354</v>
+      </c>
+      <c r="O101" t="s">
+        <v>355</v>
+      </c>
+      <c r="P101" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="D102" t="s">
+        <v>616</v>
+      </c>
+      <c r="E102" t="s">
+        <v>617</v>
+      </c>
+      <c r="F102" t="s">
+        <v>84</v>
+      </c>
+      <c r="G102" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="I102" t="s">
+        <v>618</v>
+      </c>
+      <c r="J102" t="s">
+        <v>23</v>
+      </c>
+      <c r="K102" t="s">
+        <v>619</v>
+      </c>
+      <c r="M102" t="s">
+        <v>354</v>
+      </c>
+      <c r="O102" t="s">
+        <v>355</v>
+      </c>
+      <c r="P102" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>620</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="D103" t="s">
+        <v>622</v>
+      </c>
+      <c r="E103" t="s">
+        <v>69</v>
+      </c>
+      <c r="F103" t="s">
+        <v>623</v>
+      </c>
+      <c r="G103" t="s">
+        <v>53</v>
+      </c>
+      <c r="H103" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="I103" t="s">
+        <v>625</v>
+      </c>
+      <c r="J103" t="s">
+        <v>23</v>
+      </c>
+      <c r="K103" t="s">
+        <v>626</v>
+      </c>
+      <c r="L103" t="s">
+        <v>627</v>
+      </c>
+      <c r="M103" t="s">
+        <v>354</v>
+      </c>
+      <c r="O103" t="s">
+        <v>355</v>
+      </c>
+      <c r="P103" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="D104" t="s">
+        <v>629</v>
+      </c>
+      <c r="E104" t="s">
+        <v>70</v>
+      </c>
+      <c r="F104" t="s">
+        <v>70</v>
+      </c>
+      <c r="G104" t="s">
+        <v>70</v>
+      </c>
+      <c r="H104" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="I104" t="s">
+        <v>631</v>
+      </c>
+      <c r="J104" t="s">
+        <v>23</v>
+      </c>
+      <c r="K104" t="s">
+        <v>632</v>
+      </c>
+      <c r="M104" t="s">
+        <v>354</v>
+      </c>
+      <c r="O104" t="s">
+        <v>355</v>
+      </c>
+      <c r="P104" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>633</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>634</v>
+      </c>
+      <c r="D105" t="s">
+        <v>635</v>
+      </c>
+      <c r="E105" t="s">
+        <v>69</v>
+      </c>
+      <c r="F105" t="s">
+        <v>636</v>
+      </c>
+      <c r="G105" t="s">
+        <v>53</v>
+      </c>
+      <c r="H105" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="I105" t="s">
+        <v>637</v>
+      </c>
+      <c r="J105" t="s">
+        <v>23</v>
+      </c>
+      <c r="K105" t="s">
+        <v>638</v>
+      </c>
+      <c r="L105" t="s">
+        <v>639</v>
+      </c>
+      <c r="M105" t="s">
+        <v>354</v>
+      </c>
+      <c r="O105" t="s">
+        <v>355</v>
+      </c>
+      <c r="P105" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>640</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>641</v>
+      </c>
+      <c r="D106" t="s">
+        <v>642</v>
+      </c>
+      <c r="E106" t="s">
+        <v>70</v>
+      </c>
+      <c r="F106" t="s">
+        <v>70</v>
+      </c>
+      <c r="G106" t="s">
+        <v>70</v>
+      </c>
+      <c r="H106" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="I106" t="s">
+        <v>637</v>
+      </c>
+      <c r="J106" t="s">
+        <v>23</v>
+      </c>
+      <c r="K106" t="s">
+        <v>643</v>
+      </c>
+      <c r="L106" t="s">
+        <v>644</v>
+      </c>
+      <c r="M106" t="s">
+        <v>354</v>
+      </c>
+      <c r="O106" t="s">
+        <v>355</v>
+      </c>
+      <c r="P106" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="D107" t="s">
+        <v>642</v>
+      </c>
+      <c r="E107" t="s">
+        <v>70</v>
+      </c>
+      <c r="F107" t="s">
+        <v>70</v>
+      </c>
+      <c r="G107" t="s">
+        <v>70</v>
+      </c>
+      <c r="H107" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="I107" t="s">
+        <v>512</v>
+      </c>
+      <c r="J107" t="s">
+        <v>34</v>
+      </c>
+      <c r="K107" t="s">
+        <v>645</v>
+      </c>
+      <c r="L107" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="M107" t="s">
+        <v>354</v>
+      </c>
+      <c r="O107" t="s">
+        <v>355</v>
+      </c>
+      <c r="P107" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="D108" t="s">
+        <v>649</v>
+      </c>
+      <c r="E108" t="s">
+        <v>69</v>
+      </c>
+      <c r="F108" t="s">
+        <v>650</v>
+      </c>
+      <c r="G108" t="s">
+        <v>20</v>
+      </c>
+      <c r="H108" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="I108" t="s">
+        <v>651</v>
+      </c>
+      <c r="J108" t="s">
+        <v>34</v>
+      </c>
+      <c r="K108" t="s">
+        <v>652</v>
+      </c>
+      <c r="M108" t="s">
+        <v>354</v>
+      </c>
+      <c r="O108" t="s">
+        <v>355</v>
+      </c>
+      <c r="P108" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="D109" t="s">
+        <v>655</v>
+      </c>
+      <c r="E109" t="s">
+        <v>70</v>
+      </c>
+      <c r="F109" t="s">
+        <v>70</v>
+      </c>
+      <c r="G109" t="s">
+        <v>70</v>
+      </c>
+      <c r="H109" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="I109" t="s">
+        <v>656</v>
+      </c>
+      <c r="J109" t="s">
+        <v>34</v>
+      </c>
+      <c r="K109" t="s">
+        <v>657</v>
+      </c>
+      <c r="M109" t="s">
+        <v>354</v>
+      </c>
+      <c r="O109" t="s">
+        <v>355</v>
+      </c>
+      <c r="P109" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="D110" t="s">
+        <v>658</v>
+      </c>
+      <c r="E110" t="s">
+        <v>51</v>
+      </c>
+      <c r="F110" t="s">
+        <v>52</v>
+      </c>
+      <c r="G110" t="s">
+        <v>53</v>
+      </c>
+      <c r="H110" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="I110" t="s">
+        <v>468</v>
+      </c>
+      <c r="J110" t="s">
+        <v>34</v>
+      </c>
+      <c r="K110" t="s">
+        <v>659</v>
+      </c>
+      <c r="L110" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="M110" t="s">
+        <v>354</v>
+      </c>
+      <c r="O110" t="s">
+        <v>355</v>
+      </c>
+      <c r="P110" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="D111" t="s">
+        <v>662</v>
+      </c>
+      <c r="E111" t="s">
+        <v>69</v>
+      </c>
+      <c r="F111" t="s">
+        <v>636</v>
+      </c>
+      <c r="G111" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H111" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="I111" t="s">
+        <v>40</v>
+      </c>
+      <c r="J111" t="s">
+        <v>34</v>
+      </c>
+      <c r="K111" t="s">
+        <v>664</v>
+      </c>
+      <c r="M111" t="s">
+        <v>354</v>
+      </c>
+      <c r="O111" t="s">
+        <v>355</v>
+      </c>
+      <c r="P111" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>665</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>666</v>
+      </c>
+      <c r="D112" t="s">
+        <v>667</v>
+      </c>
+      <c r="E112" t="s">
+        <v>31</v>
+      </c>
+      <c r="F112" t="s">
+        <v>19</v>
+      </c>
+      <c r="G112" t="s">
+        <v>20</v>
+      </c>
+      <c r="H112" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="I112" t="s">
+        <v>668</v>
+      </c>
+      <c r="J112" t="s">
+        <v>34</v>
+      </c>
+      <c r="K112" t="s">
+        <v>669</v>
+      </c>
+      <c r="M112" t="s">
+        <v>354</v>
+      </c>
+      <c r="O112" t="s">
+        <v>355</v>
+      </c>
+      <c r="P112" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>671</v>
+      </c>
+      <c r="D113" t="s">
+        <v>434</v>
+      </c>
+      <c r="E113" t="s">
+        <v>366</v>
+      </c>
+      <c r="F113" t="s">
+        <v>366</v>
+      </c>
+      <c r="G113" t="s">
+        <v>85</v>
+      </c>
+      <c r="H113" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="I113" t="s">
+        <v>672</v>
+      </c>
+      <c r="J113" t="s">
+        <v>34</v>
+      </c>
+      <c r="K113" t="s">
+        <v>673</v>
+      </c>
+      <c r="M113" t="s">
+        <v>354</v>
+      </c>
+      <c r="O113" t="s">
+        <v>355</v>
+      </c>
+      <c r="P113" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>674</v>
+      </c>
+      <c r="D114" t="s">
+        <v>675</v>
+      </c>
+      <c r="E114" t="s">
+        <v>69</v>
+      </c>
+      <c r="F114" t="s">
+        <v>52</v>
+      </c>
+      <c r="G114" t="s">
+        <v>53</v>
+      </c>
+      <c r="H114" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="I114" t="s">
+        <v>676</v>
+      </c>
+      <c r="J114" t="s">
+        <v>23</v>
+      </c>
+      <c r="K114" t="s">
+        <v>677</v>
+      </c>
+      <c r="M114" t="s">
+        <v>354</v>
+      </c>
+      <c r="O114" t="s">
+        <v>355</v>
+      </c>
+      <c r="P114" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>678</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>679</v>
+      </c>
+      <c r="D115" t="s">
+        <v>680</v>
+      </c>
+      <c r="E115" t="s">
+        <v>69</v>
+      </c>
+      <c r="F115" t="s">
+        <v>681</v>
+      </c>
+      <c r="G115" t="s">
+        <v>85</v>
+      </c>
+      <c r="H115" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="I115" t="s">
+        <v>40</v>
+      </c>
+      <c r="J115" t="s">
+        <v>23</v>
+      </c>
+      <c r="K115" t="s">
+        <v>682</v>
+      </c>
+      <c r="M115" t="s">
+        <v>354</v>
+      </c>
+      <c r="O115" t="s">
+        <v>355</v>
+      </c>
+      <c r="P115" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="D116" t="s">
+        <v>680</v>
+      </c>
+      <c r="E116" t="s">
+        <v>69</v>
+      </c>
+      <c r="F116" t="s">
+        <v>681</v>
+      </c>
+      <c r="G116" t="s">
+        <v>85</v>
+      </c>
+      <c r="H116" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="I116" t="s">
+        <v>40</v>
+      </c>
+      <c r="J116" t="s">
+        <v>34</v>
+      </c>
+      <c r="K116" t="s">
+        <v>685</v>
+      </c>
+      <c r="L116" t="s">
+        <v>686</v>
+      </c>
+      <c r="M116" t="s">
+        <v>354</v>
+      </c>
+      <c r="O116" t="s">
+        <v>355</v>
+      </c>
+      <c r="P116" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>687</v>
+      </c>
+      <c r="D117" t="s">
+        <v>688</v>
+      </c>
+      <c r="E117" t="s">
+        <v>69</v>
+      </c>
+      <c r="F117" t="s">
+        <v>70</v>
+      </c>
+      <c r="G117" t="s">
+        <v>70</v>
+      </c>
+      <c r="H117" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="I117" t="s">
+        <v>689</v>
+      </c>
+      <c r="J117" t="s">
+        <v>23</v>
+      </c>
+      <c r="K117" t="s">
+        <v>690</v>
+      </c>
+      <c r="M117" t="s">
+        <v>354</v>
+      </c>
+      <c r="O117" t="s">
+        <v>355</v>
+      </c>
+      <c r="P117" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>691</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>692</v>
+      </c>
+      <c r="D118" t="s">
+        <v>90</v>
+      </c>
+      <c r="E118" t="s">
+        <v>51</v>
+      </c>
+      <c r="F118" t="s">
+        <v>52</v>
+      </c>
+      <c r="G118" t="s">
+        <v>53</v>
+      </c>
+      <c r="H118" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="I118" t="s">
+        <v>693</v>
+      </c>
+      <c r="J118" t="s">
+        <v>23</v>
+      </c>
+      <c r="K118" t="s">
+        <v>694</v>
+      </c>
+      <c r="M118" t="s">
+        <v>354</v>
+      </c>
+      <c r="O118" t="s">
+        <v>355</v>
+      </c>
+      <c r="P118" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>695</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>696</v>
+      </c>
+      <c r="D119" t="s">
+        <v>96</v>
+      </c>
+      <c r="E119" t="s">
+        <v>51</v>
+      </c>
+      <c r="F119" t="s">
+        <v>52</v>
+      </c>
+      <c r="G119" t="s">
+        <v>53</v>
+      </c>
+      <c r="H119" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="I119" t="s">
+        <v>697</v>
+      </c>
+      <c r="J119" t="s">
+        <v>23</v>
+      </c>
+      <c r="K119" t="s">
+        <v>698</v>
+      </c>
+      <c r="M119" t="s">
+        <v>354</v>
+      </c>
+      <c r="O119" t="s">
+        <v>355</v>
+      </c>
+      <c r="P119" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="D120" t="s">
+        <v>701</v>
+      </c>
+      <c r="E120" t="s">
+        <v>69</v>
+      </c>
+      <c r="F120" t="s">
+        <v>70</v>
+      </c>
+      <c r="G120" t="s">
+        <v>70</v>
+      </c>
+      <c r="H120" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="I120" t="s">
+        <v>565</v>
+      </c>
+      <c r="J120" t="s">
+        <v>34</v>
+      </c>
+      <c r="K120" t="s">
+        <v>702</v>
+      </c>
+      <c r="M120" t="s">
+        <v>354</v>
+      </c>
+      <c r="O120" t="s">
+        <v>355</v>
+      </c>
+      <c r="P120" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>703</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>704</v>
+      </c>
+      <c r="D121" t="s">
+        <v>30</v>
+      </c>
+      <c r="E121" t="s">
+        <v>31</v>
+      </c>
+      <c r="F121" t="s">
+        <v>19</v>
+      </c>
+      <c r="G121" t="s">
+        <v>20</v>
+      </c>
+      <c r="H121" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="I121" t="s">
+        <v>705</v>
+      </c>
+      <c r="J121" t="s">
+        <v>34</v>
+      </c>
+      <c r="K121" t="s">
+        <v>706</v>
+      </c>
+      <c r="L121" t="s">
+        <v>707</v>
+      </c>
+      <c r="M121" t="s">
+        <v>354</v>
+      </c>
+      <c r="N121" t="s">
+        <v>708</v>
+      </c>
+      <c r="O121" t="s">
+        <v>355</v>
+      </c>
+      <c r="P121" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>709</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="D122" t="s">
+        <v>711</v>
+      </c>
+      <c r="E122" t="s">
+        <v>69</v>
+      </c>
+      <c r="F122" t="s">
+        <v>52</v>
+      </c>
+      <c r="G122" t="s">
+        <v>53</v>
+      </c>
+      <c r="H122" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="I122" t="s">
+        <v>712</v>
+      </c>
+      <c r="J122" t="s">
+        <v>23</v>
+      </c>
+      <c r="K122" t="s">
+        <v>713</v>
+      </c>
+      <c r="M122" t="s">
+        <v>354</v>
+      </c>
+      <c r="O122" t="s">
+        <v>355</v>
+      </c>
+      <c r="P122" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>714</v>
+      </c>
+      <c r="D123" t="s">
+        <v>715</v>
+      </c>
+      <c r="E123" t="s">
+        <v>69</v>
+      </c>
+      <c r="F123" t="s">
+        <v>716</v>
+      </c>
+      <c r="G123" t="s">
+        <v>85</v>
+      </c>
+      <c r="H123" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="I123" t="s">
+        <v>689</v>
+      </c>
+      <c r="J123" t="s">
+        <v>23</v>
+      </c>
+      <c r="K123" t="s">
+        <v>717</v>
+      </c>
+      <c r="L123" t="s">
+        <v>718</v>
+      </c>
+      <c r="M123" t="s">
+        <v>354</v>
+      </c>
+      <c r="O123" t="s">
+        <v>355</v>
+      </c>
+      <c r="P123" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="D124" t="s">
+        <v>721</v>
+      </c>
+      <c r="E124" t="s">
+        <v>69</v>
+      </c>
+      <c r="F124" t="s">
+        <v>70</v>
+      </c>
+      <c r="G124" t="s">
+        <v>70</v>
+      </c>
+      <c r="H124" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="I124" t="s">
+        <v>723</v>
+      </c>
+      <c r="J124" t="s">
+        <v>23</v>
+      </c>
+      <c r="K124" t="s">
+        <v>717</v>
+      </c>
+      <c r="L124" t="s">
+        <v>724</v>
+      </c>
+      <c r="M124" t="s">
+        <v>354</v>
+      </c>
+      <c r="O124" t="s">
+        <v>355</v>
+      </c>
+      <c r="P124" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>725</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>726</v>
+      </c>
+      <c r="D125" t="s">
+        <v>18</v>
+      </c>
+      <c r="E125" t="s">
+        <v>19</v>
+      </c>
+      <c r="F125" t="s">
+        <v>19</v>
+      </c>
+      <c r="G125" t="s">
+        <v>20</v>
+      </c>
+      <c r="H125" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="I125" t="s">
+        <v>727</v>
+      </c>
+      <c r="J125" t="s">
+        <v>34</v>
+      </c>
+      <c r="L125" t="s">
+        <v>728</v>
+      </c>
+      <c r="M125" t="s">
+        <v>708</v>
+      </c>
+      <c r="O125" t="s">
+        <v>355</v>
+      </c>
+      <c r="P125" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>729</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="D126" t="s">
+        <v>113</v>
+      </c>
+      <c r="E126" t="s">
+        <v>31</v>
+      </c>
+      <c r="F126" t="s">
+        <v>19</v>
+      </c>
+      <c r="G126" t="s">
+        <v>20</v>
+      </c>
+      <c r="H126" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="I126" t="s">
+        <v>731</v>
+      </c>
+      <c r="J126" t="s">
+        <v>34</v>
+      </c>
+      <c r="M126" t="s">
+        <v>708</v>
+      </c>
+      <c r="O126" t="s">
+        <v>355</v>
+      </c>
+      <c r="P126" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>732</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>733</v>
+      </c>
+      <c r="D127" t="s">
+        <v>30</v>
+      </c>
+      <c r="E127" t="s">
+        <v>31</v>
+      </c>
+      <c r="F127" t="s">
+        <v>19</v>
+      </c>
+      <c r="G127" t="s">
+        <v>20</v>
+      </c>
+      <c r="H127" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="I127" t="s">
+        <v>40</v>
+      </c>
+      <c r="J127" t="s">
+        <v>34</v>
+      </c>
+      <c r="M127" t="s">
+        <v>708</v>
+      </c>
+      <c r="O127" t="s">
+        <v>355</v>
+      </c>
+      <c r="P127" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>735</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>736</v>
+      </c>
+      <c r="D128" t="s">
+        <v>18</v>
+      </c>
+      <c r="E128" t="s">
+        <v>19</v>
+      </c>
+      <c r="F128" t="s">
+        <v>19</v>
+      </c>
+      <c r="G128" t="s">
+        <v>20</v>
+      </c>
+      <c r="H128" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="I128" t="s">
+        <v>40</v>
+      </c>
+      <c r="J128" t="s">
+        <v>34</v>
+      </c>
+      <c r="L128" t="s">
+        <v>737</v>
+      </c>
+      <c r="M128" t="s">
+        <v>708</v>
+      </c>
+      <c r="O128" t="s">
+        <v>355</v>
+      </c>
+      <c r="P128" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>739</v>
+      </c>
+      <c r="D129" t="s">
+        <v>403</v>
+      </c>
+      <c r="E129" t="s">
+        <v>19</v>
+      </c>
+      <c r="F129" t="s">
+        <v>19</v>
+      </c>
+      <c r="G129" t="s">
+        <v>20</v>
+      </c>
+      <c r="H129" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="I129" t="s">
+        <v>40</v>
+      </c>
+      <c r="J129" t="s">
+        <v>23</v>
+      </c>
+      <c r="L129" t="s">
+        <v>741</v>
+      </c>
+      <c r="M129" t="s">
+        <v>708</v>
+      </c>
+      <c r="O129" t="s">
+        <v>355</v>
+      </c>
+      <c r="P129" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>742</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>743</v>
+      </c>
+      <c r="D130" t="s">
+        <v>60</v>
+      </c>
+      <c r="E130" t="s">
+        <v>61</v>
+      </c>
+      <c r="F130" t="s">
+        <v>52</v>
+      </c>
+      <c r="G130" t="s">
+        <v>53</v>
+      </c>
+      <c r="H130" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="I130" t="s">
+        <v>637</v>
+      </c>
+      <c r="J130" t="s">
+        <v>23</v>
+      </c>
+      <c r="K130" t="s">
+        <v>744</v>
+      </c>
+      <c r="L130" t="s">
+        <v>745</v>
+      </c>
+      <c r="M130" t="s">
+        <v>746</v>
+      </c>
+      <c r="O130" t="s">
+        <v>355</v>
+      </c>
+      <c r="P130" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>747</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>748</v>
+      </c>
+      <c r="D131" t="s">
+        <v>749</v>
+      </c>
+      <c r="E131" t="s">
+        <v>103</v>
+      </c>
+      <c r="F131" t="s">
+        <v>52</v>
+      </c>
+      <c r="G131" t="s">
+        <v>53</v>
+      </c>
+      <c r="H131" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="I131" t="s">
+        <v>750</v>
+      </c>
+      <c r="J131" t="s">
+        <v>23</v>
+      </c>
+      <c r="K131" t="s">
+        <v>751</v>
+      </c>
+      <c r="M131" t="s">
+        <v>746</v>
+      </c>
+      <c r="O131" t="s">
+        <v>355</v>
+      </c>
+      <c r="P131" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>40</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>752</v>
+      </c>
+      <c r="D132" t="s">
+        <v>82</v>
+      </c>
+      <c r="E132" t="s">
+        <v>83</v>
+      </c>
+      <c r="F132" t="s">
+        <v>84</v>
+      </c>
+      <c r="G132" t="s">
+        <v>85</v>
+      </c>
+      <c r="H132" t="s">
+        <v>367</v>
+      </c>
+      <c r="I132" t="s">
+        <v>753</v>
+      </c>
+      <c r="J132" t="s">
+        <v>23</v>
+      </c>
+      <c r="K132" t="s">
+        <v>754</v>
+      </c>
+      <c r="L132" t="s">
+        <v>755</v>
+      </c>
+      <c r="M132" t="s">
+        <v>746</v>
+      </c>
+      <c r="O132" t="s">
+        <v>355</v>
+      </c>
+      <c r="P132" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133" s="10" t="s">
+        <v>756</v>
+      </c>
+      <c r="C133" s="11" t="s">
+        <v>757</v>
+      </c>
+      <c r="D133" s="10" t="s">
+        <v>758</v>
+      </c>
+      <c r="E133" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="F133" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="G133" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H133" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="I133" s="10" t="s">
+        <v>759</v>
+      </c>
+      <c r="J133" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="K133" s="10"/>
+      <c r="L133" s="13" t="s">
+        <v>760</v>
+      </c>
+      <c r="M133" s="10"/>
+      <c r="N133" s="10"/>
+      <c r="O133" s="10" t="s">
+        <v>761</v>
+      </c>
+      <c r="P133" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>762</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>763</v>
+      </c>
+      <c r="D134" t="s">
+        <v>176</v>
+      </c>
+      <c r="E134" t="s">
+        <v>177</v>
+      </c>
+      <c r="F134" t="s">
+        <v>19</v>
+      </c>
+      <c r="G134" t="s">
+        <v>20</v>
+      </c>
+      <c r="H134" s="3" t="s">
+        <v>764</v>
+      </c>
+      <c r="I134" t="s">
+        <v>40</v>
+      </c>
+      <c r="J134" t="s">
+        <v>34</v>
+      </c>
+      <c r="L134" t="s">
+        <v>765</v>
+      </c>
+      <c r="M134" t="s">
+        <v>766</v>
+      </c>
+      <c r="O134" t="s">
+        <v>767</v>
+      </c>
+      <c r="P134" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L133" r:id="rId1" xr:uid="{1641ADA6-35EC-4C76-AC6F-A0CB3AA93ECA}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73A34E75-2D43-4210-B247-0F1E2659BB19}">
   <dimension ref="A1:P134"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C135" sqref="C135"/>
+      <selection pane="bottomLeft" sqref="A1:P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/reception_analysis_data.xlsx
+++ b/reception_analysis_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Noah Zeldin\Documents\R stuff\R projects\dissertation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{276BC5F8-2822-4DCC-B7EB-D8E5C22A3114}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0BDD9E-AEC2-44C1-85C1-DCDA2D80FDD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{05090813-5714-498C-A2E7-B769A3723D8B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{05090813-5714-498C-A2E7-B769A3723D8B}"/>
   </bookViews>
   <sheets>
     <sheet name="all_docs_lowercase" sheetId="3" r:id="rId1"/>
@@ -390,7 +390,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3672" uniqueCount="781">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3672" uniqueCount="783">
   <si>
     <t>Article</t>
   </si>
@@ -3458,6 +3458,12 @@
   </si>
   <si>
     <t>piece</t>
+  </si>
+  <si>
+    <t>measures</t>
+  </si>
+  <si>
+    <t>mother</t>
   </si>
 </sst>
 </file>
@@ -4006,10 +4012,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD55270A-6EE4-4E29-A288-95E6364C6952}">
   <dimension ref="A1:P134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="Q5" sqref="Q5"/>
+      <selection pane="bottomLeft" activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4124,7 +4130,7 @@
         <v>26</v>
       </c>
       <c r="P2" t="s">
-        <v>27</v>
+        <v>781</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4171,7 +4177,7 @@
         <v>26</v>
       </c>
       <c r="P3" t="s">
-        <v>27</v>
+        <v>781</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4215,7 +4221,7 @@
         <v>26</v>
       </c>
       <c r="P4" t="s">
-        <v>27</v>
+        <v>781</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4265,7 +4271,7 @@
         <v>26</v>
       </c>
       <c r="P5" t="s">
-        <v>27</v>
+        <v>781</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4315,7 +4321,7 @@
         <v>26</v>
       </c>
       <c r="P6" t="s">
-        <v>27</v>
+        <v>781</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4365,7 +4371,7 @@
         <v>26</v>
       </c>
       <c r="P7" t="s">
-        <v>27</v>
+        <v>781</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4412,7 +4418,7 @@
         <v>26</v>
       </c>
       <c r="P8" t="s">
-        <v>27</v>
+        <v>781</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4459,7 +4465,7 @@
         <v>26</v>
       </c>
       <c r="P9" t="s">
-        <v>27</v>
+        <v>781</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4506,7 +4512,7 @@
         <v>26</v>
       </c>
       <c r="P10" t="s">
-        <v>27</v>
+        <v>781</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4556,7 +4562,7 @@
         <v>26</v>
       </c>
       <c r="P11" t="s">
-        <v>27</v>
+        <v>781</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4603,7 +4609,7 @@
         <v>26</v>
       </c>
       <c r="P12" t="s">
-        <v>27</v>
+        <v>781</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4647,7 +4653,7 @@
         <v>26</v>
       </c>
       <c r="P13" t="s">
-        <v>27</v>
+        <v>781</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4694,7 +4700,7 @@
         <v>26</v>
       </c>
       <c r="P14" t="s">
-        <v>27</v>
+        <v>781</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4744,7 +4750,7 @@
         <v>26</v>
       </c>
       <c r="P15" t="s">
-        <v>27</v>
+        <v>781</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4788,7 +4794,7 @@
         <v>26</v>
       </c>
       <c r="P16" t="s">
-        <v>27</v>
+        <v>781</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4835,7 +4841,7 @@
         <v>26</v>
       </c>
       <c r="P17" t="s">
-        <v>27</v>
+        <v>781</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4882,7 +4888,7 @@
         <v>26</v>
       </c>
       <c r="P18" t="s">
-        <v>27</v>
+        <v>781</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4929,7 +4935,7 @@
         <v>26</v>
       </c>
       <c r="P19" t="s">
-        <v>27</v>
+        <v>781</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4976,7 +4982,7 @@
         <v>26</v>
       </c>
       <c r="P20" t="s">
-        <v>27</v>
+        <v>781</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -5023,7 +5029,7 @@
         <v>26</v>
       </c>
       <c r="P21" t="s">
-        <v>27</v>
+        <v>781</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -5070,7 +5076,7 @@
         <v>26</v>
       </c>
       <c r="P22" t="s">
-        <v>27</v>
+        <v>781</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -5117,7 +5123,7 @@
         <v>26</v>
       </c>
       <c r="P23" t="s">
-        <v>27</v>
+        <v>781</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -5164,7 +5170,7 @@
         <v>26</v>
       </c>
       <c r="P24" t="s">
-        <v>27</v>
+        <v>781</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -5214,7 +5220,7 @@
         <v>26</v>
       </c>
       <c r="P25" t="s">
-        <v>27</v>
+        <v>781</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -5261,7 +5267,7 @@
         <v>26</v>
       </c>
       <c r="P26" t="s">
-        <v>27</v>
+        <v>781</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -5305,7 +5311,7 @@
         <v>26</v>
       </c>
       <c r="P27" t="s">
-        <v>27</v>
+        <v>781</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -5352,7 +5358,7 @@
         <v>26</v>
       </c>
       <c r="P28" t="s">
-        <v>27</v>
+        <v>781</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -5396,7 +5402,7 @@
         <v>26</v>
       </c>
       <c r="P29" t="s">
-        <v>27</v>
+        <v>781</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -5443,7 +5449,7 @@
         <v>26</v>
       </c>
       <c r="P30" t="s">
-        <v>27</v>
+        <v>781</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -5490,7 +5496,7 @@
         <v>26</v>
       </c>
       <c r="P31" t="s">
-        <v>27</v>
+        <v>781</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -5537,7 +5543,7 @@
         <v>26</v>
       </c>
       <c r="P32" t="s">
-        <v>27</v>
+        <v>781</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -5584,7 +5590,7 @@
         <v>26</v>
       </c>
       <c r="P33" t="s">
-        <v>27</v>
+        <v>781</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -5631,7 +5637,7 @@
         <v>26</v>
       </c>
       <c r="P34" t="s">
-        <v>27</v>
+        <v>781</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -5681,7 +5687,7 @@
         <v>26</v>
       </c>
       <c r="P35" t="s">
-        <v>27</v>
+        <v>781</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -5728,7 +5734,7 @@
         <v>26</v>
       </c>
       <c r="P36" t="s">
-        <v>27</v>
+        <v>781</v>
       </c>
     </row>
     <row r="37" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -5775,7 +5781,7 @@
         <v>26</v>
       </c>
       <c r="P37" t="s">
-        <v>27</v>
+        <v>781</v>
       </c>
     </row>
     <row r="38" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -5825,7 +5831,7 @@
         <v>26</v>
       </c>
       <c r="P38" t="s">
-        <v>27</v>
+        <v>781</v>
       </c>
     </row>
     <row r="39" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -5875,7 +5881,7 @@
         <v>26</v>
       </c>
       <c r="P39" t="s">
-        <v>27</v>
+        <v>781</v>
       </c>
     </row>
     <row r="40" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -5925,7 +5931,7 @@
         <v>26</v>
       </c>
       <c r="P40" t="s">
-        <v>27</v>
+        <v>781</v>
       </c>
     </row>
     <row r="41" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -5972,7 +5978,7 @@
         <v>26</v>
       </c>
       <c r="P41" t="s">
-        <v>27</v>
+        <v>781</v>
       </c>
     </row>
     <row r="42" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -6019,7 +6025,7 @@
         <v>26</v>
       </c>
       <c r="P42" t="s">
-        <v>27</v>
+        <v>781</v>
       </c>
     </row>
     <row r="43" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -6066,7 +6072,7 @@
         <v>26</v>
       </c>
       <c r="P43" t="s">
-        <v>27</v>
+        <v>781</v>
       </c>
     </row>
     <row r="44" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -6113,7 +6119,7 @@
         <v>26</v>
       </c>
       <c r="P44" t="s">
-        <v>27</v>
+        <v>781</v>
       </c>
     </row>
     <row r="45" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -6163,7 +6169,7 @@
         <v>26</v>
       </c>
       <c r="P45" t="s">
-        <v>27</v>
+        <v>781</v>
       </c>
     </row>
     <row r="46" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -6210,7 +6216,7 @@
         <v>26</v>
       </c>
       <c r="P46" t="s">
-        <v>27</v>
+        <v>781</v>
       </c>
     </row>
     <row r="47" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -6254,7 +6260,7 @@
         <v>322</v>
       </c>
       <c r="P47" t="s">
-        <v>27</v>
+        <v>781</v>
       </c>
     </row>
     <row r="48" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -6301,7 +6307,7 @@
         <v>322</v>
       </c>
       <c r="P48" t="s">
-        <v>27</v>
+        <v>781</v>
       </c>
     </row>
     <row r="49" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -6342,7 +6348,7 @@
         <v>333</v>
       </c>
       <c r="P49" t="s">
-        <v>27</v>
+        <v>781</v>
       </c>
     </row>
     <row r="50" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -6386,7 +6392,7 @@
         <v>333</v>
       </c>
       <c r="P50" t="s">
-        <v>27</v>
+        <v>781</v>
       </c>
     </row>
     <row r="51" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -6430,7 +6436,7 @@
         <v>40</v>
       </c>
       <c r="P51" t="s">
-        <v>27</v>
+        <v>781</v>
       </c>
     </row>
     <row r="52" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -6474,7 +6480,7 @@
         <v>355</v>
       </c>
       <c r="P52" t="s">
-        <v>355</v>
+        <v>782</v>
       </c>
     </row>
     <row r="53" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -6521,7 +6527,7 @@
         <v>355</v>
       </c>
       <c r="P53" t="s">
-        <v>355</v>
+        <v>782</v>
       </c>
     </row>
     <row r="54" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -6568,7 +6574,7 @@
         <v>355</v>
       </c>
       <c r="P54" t="s">
-        <v>355</v>
+        <v>782</v>
       </c>
     </row>
     <row r="55" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -6615,7 +6621,7 @@
         <v>355</v>
       </c>
       <c r="P55" t="s">
-        <v>355</v>
+        <v>782</v>
       </c>
     </row>
     <row r="56" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -6659,7 +6665,7 @@
         <v>355</v>
       </c>
       <c r="P56" t="s">
-        <v>355</v>
+        <v>782</v>
       </c>
     </row>
     <row r="57" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -6706,7 +6712,7 @@
         <v>355</v>
       </c>
       <c r="P57" t="s">
-        <v>355</v>
+        <v>782</v>
       </c>
     </row>
     <row r="58" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -6753,7 +6759,7 @@
         <v>355</v>
       </c>
       <c r="P58" t="s">
-        <v>355</v>
+        <v>782</v>
       </c>
     </row>
     <row r="59" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -6800,7 +6806,7 @@
         <v>355</v>
       </c>
       <c r="P59" t="s">
-        <v>355</v>
+        <v>782</v>
       </c>
     </row>
     <row r="60" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -6847,7 +6853,7 @@
         <v>355</v>
       </c>
       <c r="P60" t="s">
-        <v>355</v>
+        <v>782</v>
       </c>
     </row>
     <row r="61" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -6894,7 +6900,7 @@
         <v>355</v>
       </c>
       <c r="P61" t="s">
-        <v>355</v>
+        <v>782</v>
       </c>
     </row>
     <row r="62" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -6941,7 +6947,7 @@
         <v>355</v>
       </c>
       <c r="P62" t="s">
-        <v>355</v>
+        <v>782</v>
       </c>
     </row>
     <row r="63" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -6988,7 +6994,7 @@
         <v>355</v>
       </c>
       <c r="P63" t="s">
-        <v>355</v>
+        <v>782</v>
       </c>
     </row>
     <row r="64" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -7035,7 +7041,7 @@
         <v>355</v>
       </c>
       <c r="P64" t="s">
-        <v>355</v>
+        <v>782</v>
       </c>
     </row>
     <row r="65" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -7082,7 +7088,7 @@
         <v>355</v>
       </c>
       <c r="P65" t="s">
-        <v>355</v>
+        <v>782</v>
       </c>
     </row>
     <row r="66" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -7126,7 +7132,7 @@
         <v>355</v>
       </c>
       <c r="P66" t="s">
-        <v>355</v>
+        <v>782</v>
       </c>
     </row>
     <row r="67" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -7173,7 +7179,7 @@
         <v>355</v>
       </c>
       <c r="P67" t="s">
-        <v>355</v>
+        <v>782</v>
       </c>
     </row>
     <row r="68" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -7220,7 +7226,7 @@
         <v>355</v>
       </c>
       <c r="P68" t="s">
-        <v>355</v>
+        <v>782</v>
       </c>
     </row>
     <row r="69" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -7267,7 +7273,7 @@
         <v>355</v>
       </c>
       <c r="P69" t="s">
-        <v>355</v>
+        <v>782</v>
       </c>
     </row>
     <row r="70" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -7314,7 +7320,7 @@
         <v>355</v>
       </c>
       <c r="P70" t="s">
-        <v>355</v>
+        <v>782</v>
       </c>
     </row>
     <row r="71" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -7358,7 +7364,7 @@
         <v>355</v>
       </c>
       <c r="P71" t="s">
-        <v>355</v>
+        <v>782</v>
       </c>
     </row>
     <row r="72" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -7402,7 +7408,7 @@
         <v>355</v>
       </c>
       <c r="P72" t="s">
-        <v>355</v>
+        <v>782</v>
       </c>
     </row>
     <row r="73" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -7449,7 +7455,7 @@
         <v>355</v>
       </c>
       <c r="P73" t="s">
-        <v>355</v>
+        <v>782</v>
       </c>
     </row>
     <row r="74" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -7493,7 +7499,7 @@
         <v>355</v>
       </c>
       <c r="P74" t="s">
-        <v>355</v>
+        <v>782</v>
       </c>
     </row>
     <row r="75" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -7537,7 +7543,7 @@
         <v>355</v>
       </c>
       <c r="P75" t="s">
-        <v>355</v>
+        <v>782</v>
       </c>
     </row>
     <row r="76" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -7584,7 +7590,7 @@
         <v>355</v>
       </c>
       <c r="P76" t="s">
-        <v>355</v>
+        <v>782</v>
       </c>
     </row>
     <row r="77" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -7628,7 +7634,7 @@
         <v>355</v>
       </c>
       <c r="P77" t="s">
-        <v>355</v>
+        <v>782</v>
       </c>
     </row>
     <row r="78" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -7672,7 +7678,7 @@
         <v>355</v>
       </c>
       <c r="P78" t="s">
-        <v>355</v>
+        <v>782</v>
       </c>
     </row>
     <row r="79" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -7719,7 +7725,7 @@
         <v>355</v>
       </c>
       <c r="P79" t="s">
-        <v>355</v>
+        <v>782</v>
       </c>
     </row>
     <row r="80" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -7766,7 +7772,7 @@
         <v>355</v>
       </c>
       <c r="P80" t="s">
-        <v>355</v>
+        <v>782</v>
       </c>
     </row>
     <row r="81" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -7810,7 +7816,7 @@
         <v>355</v>
       </c>
       <c r="P81" t="s">
-        <v>355</v>
+        <v>782</v>
       </c>
     </row>
     <row r="82" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -7857,7 +7863,7 @@
         <v>355</v>
       </c>
       <c r="P82" t="s">
-        <v>355</v>
+        <v>782</v>
       </c>
     </row>
     <row r="83" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -7904,7 +7910,7 @@
         <v>355</v>
       </c>
       <c r="P83" t="s">
-        <v>355</v>
+        <v>782</v>
       </c>
     </row>
     <row r="84" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -7951,7 +7957,7 @@
         <v>355</v>
       </c>
       <c r="P84" t="s">
-        <v>355</v>
+        <v>782</v>
       </c>
     </row>
     <row r="85" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -7998,7 +8004,7 @@
         <v>355</v>
       </c>
       <c r="P85" t="s">
-        <v>355</v>
+        <v>782</v>
       </c>
     </row>
     <row r="86" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -8045,7 +8051,7 @@
         <v>355</v>
       </c>
       <c r="P86" t="s">
-        <v>355</v>
+        <v>782</v>
       </c>
     </row>
     <row r="87" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -8089,7 +8095,7 @@
         <v>355</v>
       </c>
       <c r="P87" t="s">
-        <v>355</v>
+        <v>782</v>
       </c>
     </row>
     <row r="88" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -8133,7 +8139,7 @@
         <v>355</v>
       </c>
       <c r="P88" t="s">
-        <v>355</v>
+        <v>782</v>
       </c>
     </row>
     <row r="89" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -8177,7 +8183,7 @@
         <v>355</v>
       </c>
       <c r="P89" t="s">
-        <v>355</v>
+        <v>782</v>
       </c>
     </row>
     <row r="90" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -8221,7 +8227,7 @@
         <v>355</v>
       </c>
       <c r="P90" t="s">
-        <v>355</v>
+        <v>782</v>
       </c>
     </row>
     <row r="91" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -8268,7 +8274,7 @@
         <v>355</v>
       </c>
       <c r="P91" t="s">
-        <v>355</v>
+        <v>782</v>
       </c>
     </row>
     <row r="92" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -8315,7 +8321,7 @@
         <v>355</v>
       </c>
       <c r="P92" t="s">
-        <v>355</v>
+        <v>782</v>
       </c>
     </row>
     <row r="93" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -8362,7 +8368,7 @@
         <v>355</v>
       </c>
       <c r="P93" t="s">
-        <v>355</v>
+        <v>782</v>
       </c>
     </row>
     <row r="94" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -8406,7 +8412,7 @@
         <v>355</v>
       </c>
       <c r="P94" t="s">
-        <v>355</v>
+        <v>782</v>
       </c>
     </row>
     <row r="95" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -8453,7 +8459,7 @@
         <v>355</v>
       </c>
       <c r="P95" t="s">
-        <v>355</v>
+        <v>782</v>
       </c>
     </row>
     <row r="96" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -8500,7 +8506,7 @@
         <v>355</v>
       </c>
       <c r="P96" t="s">
-        <v>355</v>
+        <v>782</v>
       </c>
     </row>
     <row r="97" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -8547,7 +8553,7 @@
         <v>355</v>
       </c>
       <c r="P97" t="s">
-        <v>355</v>
+        <v>782</v>
       </c>
     </row>
     <row r="98" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -8591,7 +8597,7 @@
         <v>355</v>
       </c>
       <c r="P98" t="s">
-        <v>355</v>
+        <v>782</v>
       </c>
     </row>
     <row r="99" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -8635,7 +8641,7 @@
         <v>355</v>
       </c>
       <c r="P99" t="s">
-        <v>355</v>
+        <v>782</v>
       </c>
     </row>
     <row r="100" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -8679,7 +8685,7 @@
         <v>355</v>
       </c>
       <c r="P100" t="s">
-        <v>355</v>
+        <v>782</v>
       </c>
     </row>
     <row r="101" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -8723,7 +8729,7 @@
         <v>355</v>
       </c>
       <c r="P101" t="s">
-        <v>355</v>
+        <v>782</v>
       </c>
     </row>
     <row r="102" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -8767,7 +8773,7 @@
         <v>355</v>
       </c>
       <c r="P102" t="s">
-        <v>355</v>
+        <v>782</v>
       </c>
     </row>
     <row r="103" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -8814,7 +8820,7 @@
         <v>355</v>
       </c>
       <c r="P103" t="s">
-        <v>355</v>
+        <v>782</v>
       </c>
     </row>
     <row r="104" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -8858,7 +8864,7 @@
         <v>355</v>
       </c>
       <c r="P104" t="s">
-        <v>355</v>
+        <v>782</v>
       </c>
     </row>
     <row r="105" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -8905,7 +8911,7 @@
         <v>355</v>
       </c>
       <c r="P105" t="s">
-        <v>355</v>
+        <v>782</v>
       </c>
     </row>
     <row r="106" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -8952,7 +8958,7 @@
         <v>355</v>
       </c>
       <c r="P106" t="s">
-        <v>355</v>
+        <v>782</v>
       </c>
     </row>
     <row r="107" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -8999,7 +9005,7 @@
         <v>355</v>
       </c>
       <c r="P107" t="s">
-        <v>355</v>
+        <v>782</v>
       </c>
     </row>
     <row r="108" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -9043,7 +9049,7 @@
         <v>355</v>
       </c>
       <c r="P108" t="s">
-        <v>355</v>
+        <v>782</v>
       </c>
     </row>
     <row r="109" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -9087,7 +9093,7 @@
         <v>355</v>
       </c>
       <c r="P109" t="s">
-        <v>355</v>
+        <v>782</v>
       </c>
     </row>
     <row r="110" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -9134,7 +9140,7 @@
         <v>355</v>
       </c>
       <c r="P110" t="s">
-        <v>355</v>
+        <v>782</v>
       </c>
     </row>
     <row r="111" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -9178,7 +9184,7 @@
         <v>355</v>
       </c>
       <c r="P111" t="s">
-        <v>355</v>
+        <v>782</v>
       </c>
     </row>
     <row r="112" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -9222,7 +9228,7 @@
         <v>355</v>
       </c>
       <c r="P112" t="s">
-        <v>355</v>
+        <v>782</v>
       </c>
     </row>
     <row r="113" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -9266,7 +9272,7 @@
         <v>355</v>
       </c>
       <c r="P113" t="s">
-        <v>355</v>
+        <v>782</v>
       </c>
     </row>
     <row r="114" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -9310,7 +9316,7 @@
         <v>355</v>
       </c>
       <c r="P114" t="s">
-        <v>355</v>
+        <v>782</v>
       </c>
     </row>
     <row r="115" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -9354,7 +9360,7 @@
         <v>355</v>
       </c>
       <c r="P115" t="s">
-        <v>355</v>
+        <v>782</v>
       </c>
     </row>
     <row r="116" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -9401,7 +9407,7 @@
         <v>355</v>
       </c>
       <c r="P116" t="s">
-        <v>355</v>
+        <v>782</v>
       </c>
     </row>
     <row r="117" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -9445,7 +9451,7 @@
         <v>355</v>
       </c>
       <c r="P117" t="s">
-        <v>355</v>
+        <v>782</v>
       </c>
     </row>
     <row r="118" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -9489,7 +9495,7 @@
         <v>355</v>
       </c>
       <c r="P118" t="s">
-        <v>355</v>
+        <v>782</v>
       </c>
     </row>
     <row r="119" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -9533,7 +9539,7 @@
         <v>355</v>
       </c>
       <c r="P119" t="s">
-        <v>355</v>
+        <v>782</v>
       </c>
     </row>
     <row r="120" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -9577,7 +9583,7 @@
         <v>355</v>
       </c>
       <c r="P120" t="s">
-        <v>355</v>
+        <v>782</v>
       </c>
     </row>
     <row r="121" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -9627,7 +9633,7 @@
         <v>355</v>
       </c>
       <c r="P121" t="s">
-        <v>355</v>
+        <v>782</v>
       </c>
     </row>
     <row r="122" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -9671,7 +9677,7 @@
         <v>355</v>
       </c>
       <c r="P122" t="s">
-        <v>355</v>
+        <v>782</v>
       </c>
     </row>
     <row r="123" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -9718,7 +9724,7 @@
         <v>355</v>
       </c>
       <c r="P123" t="s">
-        <v>355</v>
+        <v>782</v>
       </c>
     </row>
     <row r="124" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -9765,7 +9771,7 @@
         <v>355</v>
       </c>
       <c r="P124" t="s">
-        <v>355</v>
+        <v>782</v>
       </c>
     </row>
     <row r="125" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -9809,7 +9815,7 @@
         <v>355</v>
       </c>
       <c r="P125" t="s">
-        <v>355</v>
+        <v>782</v>
       </c>
     </row>
     <row r="126" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -9850,7 +9856,7 @@
         <v>355</v>
       </c>
       <c r="P126" t="s">
-        <v>355</v>
+        <v>782</v>
       </c>
     </row>
     <row r="127" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -9891,7 +9897,7 @@
         <v>355</v>
       </c>
       <c r="P127" t="s">
-        <v>355</v>
+        <v>782</v>
       </c>
     </row>
     <row r="128" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -9935,7 +9941,7 @@
         <v>355</v>
       </c>
       <c r="P128" t="s">
-        <v>355</v>
+        <v>782</v>
       </c>
     </row>
     <row r="129" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -9979,7 +9985,7 @@
         <v>355</v>
       </c>
       <c r="P129" t="s">
-        <v>355</v>
+        <v>782</v>
       </c>
     </row>
     <row r="130" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -10026,7 +10032,7 @@
         <v>355</v>
       </c>
       <c r="P130" t="s">
-        <v>355</v>
+        <v>782</v>
       </c>
     </row>
     <row r="131" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -10070,7 +10076,7 @@
         <v>355</v>
       </c>
       <c r="P131" t="s">
-        <v>355</v>
+        <v>782</v>
       </c>
     </row>
     <row r="132" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -10117,7 +10123,7 @@
         <v>355</v>
       </c>
       <c r="P132" t="s">
-        <v>355</v>
+        <v>782</v>
       </c>
     </row>
     <row r="133" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -10161,7 +10167,7 @@
         <v>761</v>
       </c>
       <c r="P133" s="10" t="s">
-        <v>27</v>
+        <v>781</v>
       </c>
     </row>
     <row r="134" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -10205,7 +10211,7 @@
         <v>767</v>
       </c>
       <c r="P134" t="s">
-        <v>27</v>
+        <v>781</v>
       </c>
     </row>
   </sheetData>

--- a/reception_analysis_data.xlsx
+++ b/reception_analysis_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Noah Zeldin\Documents\R stuff\R projects\dissertation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0BDD9E-AEC2-44C1-85C1-DCDA2D80FDD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7963798A-AA4D-4FD1-80ED-D467CBCB574D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{05090813-5714-498C-A2E7-B769A3723D8B}"/>
   </bookViews>
@@ -390,7 +390,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3672" uniqueCount="783">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3672" uniqueCount="785">
   <si>
     <t>Article</t>
   </si>
@@ -3464,6 +3464,12 @@
   </si>
   <si>
     <t>mother</t>
+  </si>
+  <si>
+    <t>complete</t>
+  </si>
+  <si>
+    <t>incomplete</t>
   </si>
 </sst>
 </file>
@@ -4012,10 +4018,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD55270A-6EE4-4E29-A288-95E6364C6952}">
   <dimension ref="A1:P134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="M15" sqref="M15"/>
+      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4115,7 +4121,7 @@
         <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>23</v>
+        <v>784</v>
       </c>
       <c r="K2" t="s">
         <v>24</v>
@@ -4162,7 +4168,7 @@
         <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>34</v>
+        <v>783</v>
       </c>
       <c r="K3" t="s">
         <v>35</v>
@@ -4209,7 +4215,7 @@
         <v>40</v>
       </c>
       <c r="J4" t="s">
-        <v>34</v>
+        <v>783</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>41</v>
@@ -4253,7 +4259,7 @@
         <v>33</v>
       </c>
       <c r="J5" t="s">
-        <v>34</v>
+        <v>783</v>
       </c>
       <c r="K5" t="s">
         <v>45</v>
@@ -4303,7 +4309,7 @@
         <v>54</v>
       </c>
       <c r="J6" t="s">
-        <v>34</v>
+        <v>783</v>
       </c>
       <c r="K6" t="s">
         <v>55</v>
@@ -4353,7 +4359,7 @@
         <v>62</v>
       </c>
       <c r="J7" t="s">
-        <v>34</v>
+        <v>783</v>
       </c>
       <c r="K7" t="s">
         <v>63</v>
@@ -4403,7 +4409,7 @@
         <v>71</v>
       </c>
       <c r="J8" t="s">
-        <v>34</v>
+        <v>783</v>
       </c>
       <c r="K8" t="s">
         <v>72</v>
@@ -4450,7 +4456,7 @@
         <v>77</v>
       </c>
       <c r="J9" t="s">
-        <v>34</v>
+        <v>783</v>
       </c>
       <c r="K9" t="s">
         <v>78</v>
@@ -4497,7 +4503,7 @@
         <v>86</v>
       </c>
       <c r="J10" t="s">
-        <v>34</v>
+        <v>783</v>
       </c>
       <c r="K10" t="s">
         <v>87</v>
@@ -4544,7 +4550,7 @@
         <v>40</v>
       </c>
       <c r="J11" t="s">
-        <v>34</v>
+        <v>783</v>
       </c>
       <c r="K11" t="s">
         <v>91</v>
@@ -4594,7 +4600,7 @@
         <v>97</v>
       </c>
       <c r="J12" t="s">
-        <v>34</v>
+        <v>783</v>
       </c>
       <c r="K12" t="s">
         <v>98</v>
@@ -4641,7 +4647,7 @@
         <v>104</v>
       </c>
       <c r="J13" t="s">
-        <v>34</v>
+        <v>783</v>
       </c>
       <c r="K13" t="s">
         <v>105</v>
@@ -4685,7 +4691,7 @@
         <v>40</v>
       </c>
       <c r="J14" t="s">
-        <v>34</v>
+        <v>783</v>
       </c>
       <c r="K14" t="s">
         <v>109</v>
@@ -4732,7 +4738,7 @@
         <v>114</v>
       </c>
       <c r="J15" t="s">
-        <v>34</v>
+        <v>783</v>
       </c>
       <c r="K15" t="s">
         <v>115</v>
@@ -4782,7 +4788,7 @@
         <v>122</v>
       </c>
       <c r="J16" t="s">
-        <v>34</v>
+        <v>783</v>
       </c>
       <c r="K16" t="s">
         <v>123</v>
@@ -4826,7 +4832,7 @@
         <v>127</v>
       </c>
       <c r="J17" t="s">
-        <v>34</v>
+        <v>783</v>
       </c>
       <c r="K17" t="s">
         <v>128</v>
@@ -4873,7 +4879,7 @@
         <v>133</v>
       </c>
       <c r="J18" t="s">
-        <v>34</v>
+        <v>783</v>
       </c>
       <c r="K18" t="s">
         <v>134</v>
@@ -4920,7 +4926,7 @@
         <v>54</v>
       </c>
       <c r="J19" t="s">
-        <v>34</v>
+        <v>783</v>
       </c>
       <c r="K19" t="s">
         <v>141</v>
@@ -4967,7 +4973,7 @@
         <v>145</v>
       </c>
       <c r="J20" t="s">
-        <v>34</v>
+        <v>783</v>
       </c>
       <c r="K20" t="s">
         <v>146</v>
@@ -5014,7 +5020,7 @@
         <v>153</v>
       </c>
       <c r="J21" t="s">
-        <v>34</v>
+        <v>783</v>
       </c>
       <c r="K21" t="s">
         <v>154</v>
@@ -5061,7 +5067,7 @@
         <v>160</v>
       </c>
       <c r="J22" t="s">
-        <v>34</v>
+        <v>783</v>
       </c>
       <c r="K22" t="s">
         <v>161</v>
@@ -5108,7 +5114,7 @@
         <v>165</v>
       </c>
       <c r="J23" t="s">
-        <v>23</v>
+        <v>784</v>
       </c>
       <c r="K23" t="s">
         <v>166</v>
@@ -5155,7 +5161,7 @@
         <v>171</v>
       </c>
       <c r="J24" t="s">
-        <v>34</v>
+        <v>783</v>
       </c>
       <c r="K24" t="s">
         <v>172</v>
@@ -5202,7 +5208,7 @@
         <v>40</v>
       </c>
       <c r="J25" t="s">
-        <v>34</v>
+        <v>783</v>
       </c>
       <c r="K25" t="s">
         <v>178</v>
@@ -5252,7 +5258,7 @@
         <v>186</v>
       </c>
       <c r="J26" t="s">
-        <v>23</v>
+        <v>784</v>
       </c>
       <c r="K26" t="s">
         <v>187</v>
@@ -5299,7 +5305,7 @@
         <v>40</v>
       </c>
       <c r="J27" t="s">
-        <v>34</v>
+        <v>783</v>
       </c>
       <c r="K27" t="s">
         <v>192</v>
@@ -5343,7 +5349,7 @@
         <v>196</v>
       </c>
       <c r="J28" t="s">
-        <v>34</v>
+        <v>783</v>
       </c>
       <c r="K28" t="s">
         <v>197</v>
@@ -5390,7 +5396,7 @@
         <v>202</v>
       </c>
       <c r="J29" t="s">
-        <v>34</v>
+        <v>783</v>
       </c>
       <c r="K29" t="s">
         <v>203</v>
@@ -5434,7 +5440,7 @@
         <v>208</v>
       </c>
       <c r="J30" t="s">
-        <v>34</v>
+        <v>783</v>
       </c>
       <c r="K30" t="s">
         <v>209</v>
@@ -5481,7 +5487,7 @@
         <v>196</v>
       </c>
       <c r="J31" t="s">
-        <v>34</v>
+        <v>783</v>
       </c>
       <c r="K31" t="s">
         <v>215</v>
@@ -5528,7 +5534,7 @@
         <v>40</v>
       </c>
       <c r="J32" t="s">
-        <v>34</v>
+        <v>783</v>
       </c>
       <c r="K32" t="s">
         <v>220</v>
@@ -5575,7 +5581,7 @@
         <v>226</v>
       </c>
       <c r="J33" t="s">
-        <v>23</v>
+        <v>784</v>
       </c>
       <c r="K33" t="s">
         <v>227</v>
@@ -5622,7 +5628,7 @@
         <v>234</v>
       </c>
       <c r="J34" t="s">
-        <v>23</v>
+        <v>784</v>
       </c>
       <c r="K34" t="s">
         <v>235</v>
@@ -5669,7 +5675,7 @@
         <v>243</v>
       </c>
       <c r="J35" t="s">
-        <v>34</v>
+        <v>783</v>
       </c>
       <c r="K35" t="s">
         <v>244</v>
@@ -5719,7 +5725,7 @@
         <v>252</v>
       </c>
       <c r="J36" t="s">
-        <v>34</v>
+        <v>783</v>
       </c>
       <c r="K36" t="s">
         <v>253</v>
@@ -5766,7 +5772,7 @@
         <v>259</v>
       </c>
       <c r="J37" t="s">
-        <v>34</v>
+        <v>783</v>
       </c>
       <c r="K37" t="s">
         <v>260</v>
@@ -5813,7 +5819,7 @@
         <v>266</v>
       </c>
       <c r="J38" t="s">
-        <v>34</v>
+        <v>783</v>
       </c>
       <c r="K38" t="s">
         <v>267</v>
@@ -5863,7 +5869,7 @@
         <v>40</v>
       </c>
       <c r="J39" t="s">
-        <v>34</v>
+        <v>783</v>
       </c>
       <c r="K39" t="s">
         <v>275</v>
@@ -5913,7 +5919,7 @@
         <v>40</v>
       </c>
       <c r="J40" t="s">
-        <v>34</v>
+        <v>783</v>
       </c>
       <c r="K40" t="s">
         <v>282</v>
@@ -5963,7 +5969,7 @@
         <v>40</v>
       </c>
       <c r="J41" t="s">
-        <v>34</v>
+        <v>783</v>
       </c>
       <c r="K41" t="s">
         <v>286</v>
@@ -6010,7 +6016,7 @@
         <v>40</v>
       </c>
       <c r="J42" t="s">
-        <v>34</v>
+        <v>783</v>
       </c>
       <c r="K42" t="s">
         <v>292</v>
@@ -6057,7 +6063,7 @@
         <v>40</v>
       </c>
       <c r="J43" t="s">
-        <v>34</v>
+        <v>783</v>
       </c>
       <c r="K43" t="s">
         <v>297</v>
@@ -6104,7 +6110,7 @@
         <v>40</v>
       </c>
       <c r="J44" t="s">
-        <v>34</v>
+        <v>783</v>
       </c>
       <c r="K44" t="s">
         <v>303</v>
@@ -6151,7 +6157,7 @@
         <v>40</v>
       </c>
       <c r="J45" t="s">
-        <v>34</v>
+        <v>783</v>
       </c>
       <c r="K45" t="s">
         <v>308</v>
@@ -6201,7 +6207,7 @@
         <v>40</v>
       </c>
       <c r="J46" t="s">
-        <v>34</v>
+        <v>783</v>
       </c>
       <c r="K46" t="s">
         <v>315</v>
@@ -6248,7 +6254,7 @@
         <v>40</v>
       </c>
       <c r="J47" t="s">
-        <v>34</v>
+        <v>783</v>
       </c>
       <c r="K47" t="s">
         <v>320</v>
@@ -6292,7 +6298,7 @@
         <v>327</v>
       </c>
       <c r="J48" t="s">
-        <v>23</v>
+        <v>784</v>
       </c>
       <c r="K48" t="s">
         <v>328</v>
@@ -6339,7 +6345,7 @@
         <v>40</v>
       </c>
       <c r="J49" t="s">
-        <v>34</v>
+        <v>783</v>
       </c>
       <c r="M49" t="s">
         <v>332</v>
@@ -6380,7 +6386,7 @@
         <v>40</v>
       </c>
       <c r="J50" t="s">
-        <v>34</v>
+        <v>783</v>
       </c>
       <c r="L50" s="4" t="s">
         <v>339</v>
@@ -6424,7 +6430,7 @@
         <v>345</v>
       </c>
       <c r="J51" t="s">
-        <v>34</v>
+        <v>783</v>
       </c>
       <c r="L51" t="s">
         <v>346</v>
@@ -6468,7 +6474,7 @@
         <v>352</v>
       </c>
       <c r="J52" t="s">
-        <v>23</v>
+        <v>784</v>
       </c>
       <c r="K52" t="s">
         <v>353</v>
@@ -6512,7 +6518,7 @@
         <v>40</v>
       </c>
       <c r="J53" t="s">
-        <v>23</v>
+        <v>784</v>
       </c>
       <c r="K53" t="s">
         <v>360</v>
@@ -6559,7 +6565,7 @@
         <v>368</v>
       </c>
       <c r="J54" t="s">
-        <v>34</v>
+        <v>783</v>
       </c>
       <c r="K54" t="s">
         <v>369</v>
@@ -6606,7 +6612,7 @@
         <v>373</v>
       </c>
       <c r="J55" t="s">
-        <v>23</v>
+        <v>784</v>
       </c>
       <c r="K55" t="s">
         <v>374</v>
@@ -6653,7 +6659,7 @@
         <v>40</v>
       </c>
       <c r="J56" t="s">
-        <v>34</v>
+        <v>783</v>
       </c>
       <c r="K56" t="s">
         <v>377</v>
@@ -6697,7 +6703,7 @@
         <v>40</v>
       </c>
       <c r="J57" t="s">
-        <v>23</v>
+        <v>784</v>
       </c>
       <c r="K57" t="s">
         <v>380</v>
@@ -6744,7 +6750,7 @@
         <v>385</v>
       </c>
       <c r="J58" t="s">
-        <v>34</v>
+        <v>783</v>
       </c>
       <c r="K58" t="s">
         <v>386</v>
@@ -6791,7 +6797,7 @@
         <v>391</v>
       </c>
       <c r="J59" t="s">
-        <v>34</v>
+        <v>783</v>
       </c>
       <c r="K59" t="s">
         <v>392</v>
@@ -6838,7 +6844,7 @@
         <v>398</v>
       </c>
       <c r="J60" t="s">
-        <v>34</v>
+        <v>783</v>
       </c>
       <c r="K60" t="s">
         <v>399</v>
@@ -6885,7 +6891,7 @@
         <v>404</v>
       </c>
       <c r="J61" t="s">
-        <v>23</v>
+        <v>784</v>
       </c>
       <c r="K61" t="s">
         <v>405</v>
@@ -6932,7 +6938,7 @@
         <v>40</v>
       </c>
       <c r="J62" t="s">
-        <v>23</v>
+        <v>784</v>
       </c>
       <c r="K62" t="s">
         <v>409</v>
@@ -6979,7 +6985,7 @@
         <v>416</v>
       </c>
       <c r="J63" t="s">
-        <v>34</v>
+        <v>783</v>
       </c>
       <c r="K63" t="s">
         <v>417</v>
@@ -7026,7 +7032,7 @@
         <v>422</v>
       </c>
       <c r="J64" t="s">
-        <v>34</v>
+        <v>783</v>
       </c>
       <c r="K64" t="s">
         <v>423</v>
@@ -7073,7 +7079,7 @@
         <v>429</v>
       </c>
       <c r="J65" t="s">
-        <v>23</v>
+        <v>784</v>
       </c>
       <c r="K65" t="s">
         <v>430</v>
@@ -7120,7 +7126,7 @@
         <v>435</v>
       </c>
       <c r="J66" t="s">
-        <v>23</v>
+        <v>784</v>
       </c>
       <c r="K66" t="s">
         <v>436</v>
@@ -7164,7 +7170,7 @@
         <v>40</v>
       </c>
       <c r="J67" t="s">
-        <v>34</v>
+        <v>783</v>
       </c>
       <c r="K67" t="s">
         <v>440</v>
@@ -7211,7 +7217,7 @@
         <v>40</v>
       </c>
       <c r="J68" t="s">
-        <v>23</v>
+        <v>784</v>
       </c>
       <c r="K68" t="s">
         <v>445</v>
@@ -7258,7 +7264,7 @@
         <v>40</v>
       </c>
       <c r="J69" t="s">
-        <v>34</v>
+        <v>783</v>
       </c>
       <c r="K69" t="s">
         <v>451</v>
@@ -7305,7 +7311,7 @@
         <v>40</v>
       </c>
       <c r="J70" t="s">
-        <v>34</v>
+        <v>783</v>
       </c>
       <c r="K70" t="s">
         <v>456</v>
@@ -7352,7 +7358,7 @@
         <v>40</v>
       </c>
       <c r="J71" t="s">
-        <v>34</v>
+        <v>783</v>
       </c>
       <c r="K71" t="s">
         <v>460</v>
@@ -7396,7 +7402,7 @@
         <v>40</v>
       </c>
       <c r="J72" t="s">
-        <v>34</v>
+        <v>783</v>
       </c>
       <c r="K72" t="s">
         <v>464</v>
@@ -7440,7 +7446,7 @@
         <v>468</v>
       </c>
       <c r="J73" t="s">
-        <v>34</v>
+        <v>783</v>
       </c>
       <c r="K73" t="s">
         <v>469</v>
@@ -7487,7 +7493,7 @@
         <v>473</v>
       </c>
       <c r="J74" t="s">
-        <v>23</v>
+        <v>784</v>
       </c>
       <c r="K74" t="s">
         <v>474</v>
@@ -7531,7 +7537,7 @@
         <v>477</v>
       </c>
       <c r="J75" t="s">
-        <v>34</v>
+        <v>783</v>
       </c>
       <c r="K75" t="s">
         <v>478</v>
@@ -7575,7 +7581,7 @@
         <v>484</v>
       </c>
       <c r="J76" t="s">
-        <v>34</v>
+        <v>783</v>
       </c>
       <c r="K76" t="s">
         <v>485</v>
@@ -7622,7 +7628,7 @@
         <v>489</v>
       </c>
       <c r="J77" t="s">
-        <v>34</v>
+        <v>783</v>
       </c>
       <c r="K77" t="s">
         <v>490</v>
@@ -7666,7 +7672,7 @@
         <v>489</v>
       </c>
       <c r="J78" t="s">
-        <v>23</v>
+        <v>784</v>
       </c>
       <c r="K78" t="s">
         <v>493</v>
@@ -7710,7 +7716,7 @@
         <v>468</v>
       </c>
       <c r="J79" t="s">
-        <v>34</v>
+        <v>783</v>
       </c>
       <c r="K79" t="s">
         <v>494</v>
@@ -7757,7 +7763,7 @@
         <v>500</v>
       </c>
       <c r="J80" t="s">
-        <v>34</v>
+        <v>783</v>
       </c>
       <c r="K80" t="s">
         <v>501</v>
@@ -7804,7 +7810,7 @@
         <v>506</v>
       </c>
       <c r="J81" t="s">
-        <v>34</v>
+        <v>783</v>
       </c>
       <c r="K81" t="s">
         <v>507</v>
@@ -7848,7 +7854,7 @@
         <v>512</v>
       </c>
       <c r="J82" t="s">
-        <v>34</v>
+        <v>783</v>
       </c>
       <c r="K82" t="s">
         <v>513</v>
@@ -7895,7 +7901,7 @@
         <v>40</v>
       </c>
       <c r="J83" t="s">
-        <v>34</v>
+        <v>783</v>
       </c>
       <c r="K83" t="s">
         <v>519</v>
@@ -7942,7 +7948,7 @@
         <v>524</v>
       </c>
       <c r="J84" t="s">
-        <v>34</v>
+        <v>783</v>
       </c>
       <c r="K84" t="s">
         <v>525</v>
@@ -7989,7 +7995,7 @@
         <v>532</v>
       </c>
       <c r="J85" t="s">
-        <v>34</v>
+        <v>783</v>
       </c>
       <c r="K85" t="s">
         <v>533</v>
@@ -8036,7 +8042,7 @@
         <v>40</v>
       </c>
       <c r="J86" t="s">
-        <v>23</v>
+        <v>784</v>
       </c>
       <c r="K86" t="s">
         <v>538</v>
@@ -8083,7 +8089,7 @@
         <v>544</v>
       </c>
       <c r="J87" t="s">
-        <v>34</v>
+        <v>783</v>
       </c>
       <c r="K87" t="s">
         <v>545</v>
@@ -8127,7 +8133,7 @@
         <v>544</v>
       </c>
       <c r="J88" t="s">
-        <v>34</v>
+        <v>783</v>
       </c>
       <c r="K88" t="s">
         <v>547</v>
@@ -8171,7 +8177,7 @@
         <v>551</v>
       </c>
       <c r="J89" t="s">
-        <v>34</v>
+        <v>783</v>
       </c>
       <c r="K89" t="s">
         <v>552</v>
@@ -8215,7 +8221,7 @@
         <v>556</v>
       </c>
       <c r="J90" t="s">
-        <v>34</v>
+        <v>783</v>
       </c>
       <c r="K90" t="s">
         <v>557</v>
@@ -8259,7 +8265,7 @@
         <v>556</v>
       </c>
       <c r="J91" t="s">
-        <v>34</v>
+        <v>783</v>
       </c>
       <c r="K91" t="s">
         <v>560</v>
@@ -8306,7 +8312,7 @@
         <v>565</v>
       </c>
       <c r="J92" t="s">
-        <v>34</v>
+        <v>783</v>
       </c>
       <c r="K92" t="s">
         <v>566</v>
@@ -8353,7 +8359,7 @@
         <v>570</v>
       </c>
       <c r="J93" t="s">
-        <v>23</v>
+        <v>784</v>
       </c>
       <c r="K93" t="s">
         <v>571</v>
@@ -8400,7 +8406,7 @@
         <v>577</v>
       </c>
       <c r="J94" t="s">
-        <v>34</v>
+        <v>783</v>
       </c>
       <c r="K94" t="s">
         <v>578</v>
@@ -8444,7 +8450,7 @@
         <v>583</v>
       </c>
       <c r="J95" t="s">
-        <v>34</v>
+        <v>783</v>
       </c>
       <c r="K95" t="s">
         <v>584</v>
@@ -8491,7 +8497,7 @@
         <v>589</v>
       </c>
       <c r="J96" t="s">
-        <v>23</v>
+        <v>784</v>
       </c>
       <c r="K96" t="s">
         <v>590</v>
@@ -8538,7 +8544,7 @@
         <v>40</v>
       </c>
       <c r="J97" t="s">
-        <v>34</v>
+        <v>783</v>
       </c>
       <c r="K97" t="s">
         <v>596</v>
@@ -8585,7 +8591,7 @@
         <v>601</v>
       </c>
       <c r="J98" t="s">
-        <v>23</v>
+        <v>784</v>
       </c>
       <c r="K98" t="s">
         <v>602</v>
@@ -8629,7 +8635,7 @@
         <v>40</v>
       </c>
       <c r="J99" t="s">
-        <v>34</v>
+        <v>783</v>
       </c>
       <c r="K99" t="s">
         <v>606</v>
@@ -8673,7 +8679,7 @@
         <v>40</v>
       </c>
       <c r="J100" t="s">
-        <v>34</v>
+        <v>783</v>
       </c>
       <c r="K100" t="s">
         <v>610</v>
@@ -8717,7 +8723,7 @@
         <v>40</v>
       </c>
       <c r="J101" t="s">
-        <v>23</v>
+        <v>784</v>
       </c>
       <c r="K101" t="s">
         <v>613</v>
@@ -8761,7 +8767,7 @@
         <v>618</v>
       </c>
       <c r="J102" t="s">
-        <v>23</v>
+        <v>784</v>
       </c>
       <c r="K102" t="s">
         <v>619</v>
@@ -8805,7 +8811,7 @@
         <v>625</v>
       </c>
       <c r="J103" t="s">
-        <v>23</v>
+        <v>784</v>
       </c>
       <c r="K103" t="s">
         <v>626</v>
@@ -8852,7 +8858,7 @@
         <v>631</v>
       </c>
       <c r="J104" t="s">
-        <v>23</v>
+        <v>784</v>
       </c>
       <c r="K104" t="s">
         <v>632</v>
@@ -8896,7 +8902,7 @@
         <v>637</v>
       </c>
       <c r="J105" t="s">
-        <v>23</v>
+        <v>784</v>
       </c>
       <c r="K105" t="s">
         <v>638</v>
@@ -8943,7 +8949,7 @@
         <v>637</v>
       </c>
       <c r="J106" t="s">
-        <v>23</v>
+        <v>784</v>
       </c>
       <c r="K106" t="s">
         <v>643</v>
@@ -8990,7 +8996,7 @@
         <v>512</v>
       </c>
       <c r="J107" t="s">
-        <v>34</v>
+        <v>783</v>
       </c>
       <c r="K107" t="s">
         <v>645</v>
@@ -9037,7 +9043,7 @@
         <v>651</v>
       </c>
       <c r="J108" t="s">
-        <v>34</v>
+        <v>783</v>
       </c>
       <c r="K108" t="s">
         <v>652</v>
@@ -9081,7 +9087,7 @@
         <v>656</v>
       </c>
       <c r="J109" t="s">
-        <v>34</v>
+        <v>783</v>
       </c>
       <c r="K109" t="s">
         <v>657</v>
@@ -9125,7 +9131,7 @@
         <v>468</v>
       </c>
       <c r="J110" t="s">
-        <v>34</v>
+        <v>783</v>
       </c>
       <c r="K110" t="s">
         <v>659</v>
@@ -9172,7 +9178,7 @@
         <v>40</v>
       </c>
       <c r="J111" t="s">
-        <v>34</v>
+        <v>783</v>
       </c>
       <c r="K111" t="s">
         <v>664</v>
@@ -9216,7 +9222,7 @@
         <v>668</v>
       </c>
       <c r="J112" t="s">
-        <v>34</v>
+        <v>783</v>
       </c>
       <c r="K112" t="s">
         <v>669</v>
@@ -9260,7 +9266,7 @@
         <v>672</v>
       </c>
       <c r="J113" t="s">
-        <v>34</v>
+        <v>783</v>
       </c>
       <c r="K113" t="s">
         <v>673</v>
@@ -9304,7 +9310,7 @@
         <v>676</v>
       </c>
       <c r="J114" t="s">
-        <v>23</v>
+        <v>784</v>
       </c>
       <c r="K114" t="s">
         <v>677</v>
@@ -9348,7 +9354,7 @@
         <v>40</v>
       </c>
       <c r="J115" t="s">
-        <v>23</v>
+        <v>784</v>
       </c>
       <c r="K115" t="s">
         <v>682</v>
@@ -9392,7 +9398,7 @@
         <v>40</v>
       </c>
       <c r="J116" t="s">
-        <v>34</v>
+        <v>783</v>
       </c>
       <c r="K116" t="s">
         <v>685</v>
@@ -9439,7 +9445,7 @@
         <v>689</v>
       </c>
       <c r="J117" t="s">
-        <v>23</v>
+        <v>784</v>
       </c>
       <c r="K117" t="s">
         <v>690</v>
@@ -9483,7 +9489,7 @@
         <v>693</v>
       </c>
       <c r="J118" t="s">
-        <v>23</v>
+        <v>784</v>
       </c>
       <c r="K118" t="s">
         <v>694</v>
@@ -9527,7 +9533,7 @@
         <v>697</v>
       </c>
       <c r="J119" t="s">
-        <v>23</v>
+        <v>784</v>
       </c>
       <c r="K119" t="s">
         <v>698</v>
@@ -9571,7 +9577,7 @@
         <v>565</v>
       </c>
       <c r="J120" t="s">
-        <v>34</v>
+        <v>783</v>
       </c>
       <c r="K120" t="s">
         <v>702</v>
@@ -9615,7 +9621,7 @@
         <v>705</v>
       </c>
       <c r="J121" t="s">
-        <v>34</v>
+        <v>783</v>
       </c>
       <c r="K121" t="s">
         <v>706</v>
@@ -9665,7 +9671,7 @@
         <v>712</v>
       </c>
       <c r="J122" t="s">
-        <v>23</v>
+        <v>784</v>
       </c>
       <c r="K122" t="s">
         <v>713</v>
@@ -9709,7 +9715,7 @@
         <v>689</v>
       </c>
       <c r="J123" t="s">
-        <v>23</v>
+        <v>784</v>
       </c>
       <c r="K123" t="s">
         <v>717</v>
@@ -9756,7 +9762,7 @@
         <v>723</v>
       </c>
       <c r="J124" t="s">
-        <v>23</v>
+        <v>784</v>
       </c>
       <c r="K124" t="s">
         <v>717</v>
@@ -9803,7 +9809,7 @@
         <v>727</v>
       </c>
       <c r="J125" t="s">
-        <v>34</v>
+        <v>783</v>
       </c>
       <c r="L125" t="s">
         <v>728</v>
@@ -9847,7 +9853,7 @@
         <v>731</v>
       </c>
       <c r="J126" t="s">
-        <v>34</v>
+        <v>783</v>
       </c>
       <c r="M126" t="s">
         <v>708</v>
@@ -9888,7 +9894,7 @@
         <v>40</v>
       </c>
       <c r="J127" t="s">
-        <v>34</v>
+        <v>783</v>
       </c>
       <c r="M127" t="s">
         <v>708</v>
@@ -9929,7 +9935,7 @@
         <v>40</v>
       </c>
       <c r="J128" t="s">
-        <v>34</v>
+        <v>783</v>
       </c>
       <c r="L128" t="s">
         <v>737</v>
@@ -9973,7 +9979,7 @@
         <v>40</v>
       </c>
       <c r="J129" t="s">
-        <v>23</v>
+        <v>784</v>
       </c>
       <c r="L129" t="s">
         <v>741</v>
@@ -10017,7 +10023,7 @@
         <v>637</v>
       </c>
       <c r="J130" t="s">
-        <v>23</v>
+        <v>784</v>
       </c>
       <c r="K130" t="s">
         <v>744</v>
@@ -10064,7 +10070,7 @@
         <v>750</v>
       </c>
       <c r="J131" t="s">
-        <v>23</v>
+        <v>784</v>
       </c>
       <c r="K131" t="s">
         <v>751</v>
@@ -10108,7 +10114,7 @@
         <v>753</v>
       </c>
       <c r="J132" t="s">
-        <v>23</v>
+        <v>784</v>
       </c>
       <c r="K132" t="s">
         <v>754</v>
@@ -10155,7 +10161,7 @@
         <v>759</v>
       </c>
       <c r="J133" s="10" t="s">
-        <v>34</v>
+        <v>783</v>
       </c>
       <c r="K133" s="10"/>
       <c r="L133" s="13" t="s">
@@ -10199,7 +10205,7 @@
         <v>40</v>
       </c>
       <c r="J134" t="s">
-        <v>34</v>
+        <v>783</v>
       </c>
       <c r="L134" t="s">
         <v>765</v>

--- a/reception_analysis_data.xlsx
+++ b/reception_analysis_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Noah Zeldin\Documents\R stuff\R projects\dissertation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7963798A-AA4D-4FD1-80ED-D467CBCB574D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDEFD6DE-0FB3-4F8B-B398-EA7E774BB9A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{05090813-5714-498C-A2E7-B769A3723D8B}"/>
   </bookViews>
@@ -390,7 +390,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3672" uniqueCount="785">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3672" uniqueCount="789">
   <si>
     <t>Article</t>
   </si>
@@ -3470,6 +3470,18 @@
   </si>
   <si>
     <t>incomplete</t>
+  </si>
+  <si>
+    <t>left</t>
+  </si>
+  <si>
+    <t>center</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>unknown</t>
   </si>
 </sst>
 </file>
@@ -4021,7 +4033,7 @@
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
+      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4112,7 +4124,7 @@
         <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>785</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>21</v>
@@ -4159,7 +4171,7 @@
         <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>785</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>32</v>
@@ -4206,7 +4218,7 @@
         <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>785</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>39</v>
@@ -4250,7 +4262,7 @@
         <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>20</v>
+        <v>785</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>44</v>
@@ -4300,7 +4312,7 @@
         <v>52</v>
       </c>
       <c r="G6" t="s">
-        <v>53</v>
+        <v>786</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>44</v>
@@ -4350,7 +4362,7 @@
         <v>52</v>
       </c>
       <c r="G7" t="s">
-        <v>53</v>
+        <v>786</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>44</v>
@@ -4400,7 +4412,7 @@
         <v>70</v>
       </c>
       <c r="G8" t="s">
-        <v>70</v>
+        <v>788</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>44</v>
@@ -4447,7 +4459,7 @@
         <v>52</v>
       </c>
       <c r="G9" t="s">
-        <v>53</v>
+        <v>786</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>44</v>
@@ -4494,7 +4506,7 @@
         <v>84</v>
       </c>
       <c r="G10" t="s">
-        <v>85</v>
+        <v>787</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>44</v>
@@ -4541,7 +4553,7 @@
         <v>52</v>
       </c>
       <c r="G11" t="s">
-        <v>53</v>
+        <v>786</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>44</v>
@@ -4591,7 +4603,7 @@
         <v>52</v>
       </c>
       <c r="G12" t="s">
-        <v>53</v>
+        <v>786</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>44</v>
@@ -4638,7 +4650,7 @@
         <v>52</v>
       </c>
       <c r="G13" t="s">
-        <v>53</v>
+        <v>786</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>44</v>
@@ -4682,7 +4694,7 @@
         <v>19</v>
       </c>
       <c r="G14" t="s">
-        <v>20</v>
+        <v>785</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>108</v>
@@ -4729,7 +4741,7 @@
         <v>19</v>
       </c>
       <c r="G15" t="s">
-        <v>20</v>
+        <v>785</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>108</v>
@@ -4779,7 +4791,7 @@
         <v>84</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>85</v>
+        <v>787</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>121</v>
@@ -4823,7 +4835,7 @@
         <v>19</v>
       </c>
       <c r="G17" t="s">
-        <v>20</v>
+        <v>785</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>126</v>
@@ -4870,7 +4882,7 @@
         <v>19</v>
       </c>
       <c r="G18" t="s">
-        <v>20</v>
+        <v>785</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>132</v>
@@ -4917,7 +4929,7 @@
         <v>70</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>70</v>
+        <v>788</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>140</v>
@@ -4964,7 +4976,7 @@
         <v>70</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>70</v>
+        <v>788</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>140</v>
@@ -5011,7 +5023,7 @@
         <v>52</v>
       </c>
       <c r="G21" t="s">
-        <v>53</v>
+        <v>786</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>152</v>
@@ -5058,7 +5070,7 @@
         <v>19</v>
       </c>
       <c r="G22" t="s">
-        <v>20</v>
+        <v>785</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>152</v>
@@ -5105,7 +5117,7 @@
         <v>19</v>
       </c>
       <c r="G23" t="s">
-        <v>20</v>
+        <v>785</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>152</v>
@@ -5152,7 +5164,7 @@
         <v>70</v>
       </c>
       <c r="G24" t="s">
-        <v>20</v>
+        <v>785</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>140</v>
@@ -5199,7 +5211,7 @@
         <v>19</v>
       </c>
       <c r="G25" t="s">
-        <v>20</v>
+        <v>785</v>
       </c>
       <c r="H25" s="7" t="s">
         <v>40</v>
@@ -5249,7 +5261,7 @@
         <v>70</v>
       </c>
       <c r="G26" t="s">
-        <v>70</v>
+        <v>788</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>185</v>
@@ -5296,7 +5308,7 @@
         <v>19</v>
       </c>
       <c r="G27" t="s">
-        <v>20</v>
+        <v>785</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>191</v>
@@ -5340,7 +5352,7 @@
         <v>19</v>
       </c>
       <c r="G28" t="s">
-        <v>20</v>
+        <v>785</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>195</v>
@@ -5387,7 +5399,7 @@
         <v>19</v>
       </c>
       <c r="G29" t="s">
-        <v>20</v>
+        <v>785</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>201</v>
@@ -5431,7 +5443,7 @@
         <v>70</v>
       </c>
       <c r="G30" t="s">
-        <v>20</v>
+        <v>785</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>207</v>
@@ -5478,7 +5490,7 @@
         <v>19</v>
       </c>
       <c r="G31" t="s">
-        <v>20</v>
+        <v>785</v>
       </c>
       <c r="H31" s="3" t="s">
         <v>207</v>
@@ -5525,7 +5537,7 @@
         <v>19</v>
       </c>
       <c r="G32" t="s">
-        <v>20</v>
+        <v>785</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>219</v>
@@ -5572,7 +5584,7 @@
         <v>19</v>
       </c>
       <c r="G33" t="s">
-        <v>20</v>
+        <v>785</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>140</v>
@@ -5619,7 +5631,7 @@
         <v>70</v>
       </c>
       <c r="G34" t="s">
-        <v>53</v>
+        <v>786</v>
       </c>
       <c r="H34" s="7" t="s">
         <v>233</v>
@@ -5666,7 +5678,7 @@
         <v>241</v>
       </c>
       <c r="G35" t="s">
-        <v>20</v>
+        <v>785</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>242</v>
@@ -5716,7 +5728,7 @@
         <v>70</v>
       </c>
       <c r="G36" t="s">
-        <v>70</v>
+        <v>788</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>251</v>
@@ -5763,7 +5775,7 @@
         <v>70</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>53</v>
+        <v>786</v>
       </c>
       <c r="H37" s="3" t="s">
         <v>258</v>
@@ -5810,7 +5822,7 @@
         <v>70</v>
       </c>
       <c r="G38" t="s">
-        <v>70</v>
+        <v>788</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>265</v>
@@ -5860,7 +5872,7 @@
         <v>84</v>
       </c>
       <c r="G39" t="s">
-        <v>53</v>
+        <v>786</v>
       </c>
       <c r="H39" s="3" t="s">
         <v>274</v>
@@ -5910,7 +5922,7 @@
         <v>281</v>
       </c>
       <c r="G40" t="s">
-        <v>53</v>
+        <v>786</v>
       </c>
       <c r="H40" s="3" t="s">
         <v>274</v>
@@ -5960,7 +5972,7 @@
         <v>19</v>
       </c>
       <c r="G41" t="s">
-        <v>20</v>
+        <v>785</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>274</v>
@@ -6007,7 +6019,7 @@
         <v>70</v>
       </c>
       <c r="G42" t="s">
-        <v>70</v>
+        <v>788</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>291</v>
@@ -6054,7 +6066,7 @@
         <v>70</v>
       </c>
       <c r="G43" t="s">
-        <v>70</v>
+        <v>788</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>291</v>
@@ -6101,7 +6113,7 @@
         <v>70</v>
       </c>
       <c r="G44" t="s">
-        <v>70</v>
+        <v>788</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>302</v>
@@ -6148,7 +6160,7 @@
         <v>19</v>
       </c>
       <c r="G45" t="s">
-        <v>20</v>
+        <v>785</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>307</v>
@@ -6198,7 +6210,7 @@
         <v>70</v>
       </c>
       <c r="G46" t="s">
-        <v>70</v>
+        <v>788</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>307</v>
@@ -6245,7 +6257,7 @@
         <v>19</v>
       </c>
       <c r="G47" t="s">
-        <v>20</v>
+        <v>785</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>319</v>
@@ -6289,7 +6301,7 @@
         <v>19</v>
       </c>
       <c r="G48" t="s">
-        <v>20</v>
+        <v>785</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>326</v>
@@ -6336,7 +6348,7 @@
         <v>19</v>
       </c>
       <c r="G49" t="s">
-        <v>20</v>
+        <v>785</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>195</v>
@@ -6377,7 +6389,7 @@
         <v>19</v>
       </c>
       <c r="G50" t="s">
-        <v>20</v>
+        <v>785</v>
       </c>
       <c r="H50" s="3" t="s">
         <v>338</v>
@@ -6421,7 +6433,7 @@
         <v>19</v>
       </c>
       <c r="G51" t="s">
-        <v>20</v>
+        <v>785</v>
       </c>
       <c r="H51" s="3" t="s">
         <v>344</v>
@@ -6465,7 +6477,7 @@
         <v>52</v>
       </c>
       <c r="G52" t="s">
-        <v>53</v>
+        <v>786</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>351</v>
@@ -6509,7 +6521,7 @@
         <v>70</v>
       </c>
       <c r="G53" t="s">
-        <v>70</v>
+        <v>788</v>
       </c>
       <c r="H53" s="3" t="s">
         <v>40</v>
@@ -6556,7 +6568,7 @@
         <v>366</v>
       </c>
       <c r="G54" t="s">
-        <v>85</v>
+        <v>787</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>367</v>
@@ -6603,7 +6615,7 @@
         <v>70</v>
       </c>
       <c r="G55" t="s">
-        <v>70</v>
+        <v>788</v>
       </c>
       <c r="H55" s="3" t="s">
         <v>40</v>
@@ -6650,7 +6662,7 @@
         <v>19</v>
       </c>
       <c r="G56" t="s">
-        <v>20</v>
+        <v>785</v>
       </c>
       <c r="H56" s="3" t="s">
         <v>40</v>
@@ -6694,7 +6706,7 @@
         <v>19</v>
       </c>
       <c r="G57" t="s">
-        <v>20</v>
+        <v>785</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>40</v>
@@ -6741,7 +6753,7 @@
         <v>52</v>
       </c>
       <c r="G58" t="s">
-        <v>53</v>
+        <v>786</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>40</v>
@@ -6788,7 +6800,7 @@
         <v>281</v>
       </c>
       <c r="G59" t="s">
-        <v>53</v>
+        <v>786</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>40</v>
@@ -6835,7 +6847,7 @@
         <v>397</v>
       </c>
       <c r="G60" t="s">
-        <v>85</v>
+        <v>787</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>40</v>
@@ -6882,7 +6894,7 @@
         <v>19</v>
       </c>
       <c r="G61" t="s">
-        <v>20</v>
+        <v>785</v>
       </c>
       <c r="H61" s="3" t="s">
         <v>40</v>
@@ -6929,7 +6941,7 @@
         <v>70</v>
       </c>
       <c r="G62" t="s">
-        <v>70</v>
+        <v>788</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>40</v>
@@ -6976,7 +6988,7 @@
         <v>414</v>
       </c>
       <c r="G63" t="s">
-        <v>85</v>
+        <v>787</v>
       </c>
       <c r="H63" s="3" t="s">
         <v>415</v>
@@ -7023,7 +7035,7 @@
         <v>52</v>
       </c>
       <c r="G64" t="s">
-        <v>53</v>
+        <v>786</v>
       </c>
       <c r="H64" s="3" t="s">
         <v>40</v>
@@ -7070,7 +7082,7 @@
         <v>70</v>
       </c>
       <c r="G65" t="s">
-        <v>70</v>
+        <v>788</v>
       </c>
       <c r="H65" s="3" t="s">
         <v>428</v>
@@ -7117,7 +7129,7 @@
         <v>366</v>
       </c>
       <c r="G66" t="s">
-        <v>85</v>
+        <v>787</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>40</v>
@@ -7161,7 +7173,7 @@
         <v>281</v>
       </c>
       <c r="G67" t="s">
-        <v>53</v>
+        <v>786</v>
       </c>
       <c r="H67" s="3" t="s">
         <v>40</v>
@@ -7208,7 +7220,7 @@
         <v>414</v>
       </c>
       <c r="G68" t="s">
-        <v>85</v>
+        <v>787</v>
       </c>
       <c r="H68" s="3" t="s">
         <v>40</v>
@@ -7255,7 +7267,7 @@
         <v>450</v>
       </c>
       <c r="G69" t="s">
-        <v>85</v>
+        <v>787</v>
       </c>
       <c r="H69" s="3" t="s">
         <v>40</v>
@@ -7302,7 +7314,7 @@
         <v>19</v>
       </c>
       <c r="G70" t="s">
-        <v>20</v>
+        <v>785</v>
       </c>
       <c r="H70" s="3" t="s">
         <v>455</v>
@@ -7349,7 +7361,7 @@
         <v>19</v>
       </c>
       <c r="G71" t="s">
-        <v>20</v>
+        <v>785</v>
       </c>
       <c r="H71" s="3" t="s">
         <v>367</v>
@@ -7393,7 +7405,7 @@
         <v>19</v>
       </c>
       <c r="G72" t="s">
-        <v>20</v>
+        <v>785</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>463</v>
@@ -7437,7 +7449,7 @@
         <v>52</v>
       </c>
       <c r="G73" t="s">
-        <v>53</v>
+        <v>786</v>
       </c>
       <c r="H73" s="3" t="s">
         <v>415</v>
@@ -7484,7 +7496,7 @@
         <v>52</v>
       </c>
       <c r="G74" t="s">
-        <v>53</v>
+        <v>786</v>
       </c>
       <c r="H74" s="3" t="s">
         <v>472</v>
@@ -7528,7 +7540,7 @@
         <v>52</v>
       </c>
       <c r="G75" t="s">
-        <v>53</v>
+        <v>786</v>
       </c>
       <c r="H75" s="3" t="s">
         <v>367</v>
@@ -7572,7 +7584,7 @@
         <v>483</v>
       </c>
       <c r="G76" t="s">
-        <v>85</v>
+        <v>787</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>351</v>
@@ -7619,7 +7631,7 @@
         <v>366</v>
       </c>
       <c r="G77" t="s">
-        <v>85</v>
+        <v>787</v>
       </c>
       <c r="H77" s="3" t="s">
         <v>367</v>
@@ -7663,7 +7675,7 @@
         <v>366</v>
       </c>
       <c r="G78" t="s">
-        <v>85</v>
+        <v>787</v>
       </c>
       <c r="H78" s="3" t="s">
         <v>351</v>
@@ -7707,7 +7719,7 @@
         <v>52</v>
       </c>
       <c r="G79" t="s">
-        <v>53</v>
+        <v>786</v>
       </c>
       <c r="H79" s="3" t="s">
         <v>415</v>
@@ -7754,7 +7766,7 @@
         <v>52</v>
       </c>
       <c r="G80" t="s">
-        <v>53</v>
+        <v>786</v>
       </c>
       <c r="H80" s="7" t="s">
         <v>499</v>
@@ -7801,7 +7813,7 @@
         <v>52</v>
       </c>
       <c r="G81" t="s">
-        <v>53</v>
+        <v>786</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>351</v>
@@ -7845,7 +7857,7 @@
         <v>70</v>
       </c>
       <c r="G82" t="s">
-        <v>70</v>
+        <v>788</v>
       </c>
       <c r="H82" s="3" t="s">
         <v>511</v>
@@ -7892,7 +7904,7 @@
         <v>52</v>
       </c>
       <c r="G83" t="s">
-        <v>53</v>
+        <v>786</v>
       </c>
       <c r="H83" s="7" t="s">
         <v>518</v>
@@ -7939,7 +7951,7 @@
         <v>281</v>
       </c>
       <c r="G84" t="s">
-        <v>53</v>
+        <v>786</v>
       </c>
       <c r="H84" s="3" t="s">
         <v>351</v>
@@ -7986,7 +7998,7 @@
         <v>84</v>
       </c>
       <c r="G85" t="s">
-        <v>53</v>
+        <v>786</v>
       </c>
       <c r="H85" s="3" t="s">
         <v>531</v>
@@ -8033,7 +8045,7 @@
         <v>366</v>
       </c>
       <c r="G86" t="s">
-        <v>85</v>
+        <v>787</v>
       </c>
       <c r="H86" s="3" t="s">
         <v>351</v>
@@ -8080,7 +8092,7 @@
         <v>366</v>
       </c>
       <c r="G87" t="s">
-        <v>85</v>
+        <v>787</v>
       </c>
       <c r="H87" s="3" t="s">
         <v>543</v>
@@ -8124,7 +8136,7 @@
         <v>366</v>
       </c>
       <c r="G88" t="s">
-        <v>85</v>
+        <v>787</v>
       </c>
       <c r="H88" s="3" t="s">
         <v>415</v>
@@ -8168,7 +8180,7 @@
         <v>70</v>
       </c>
       <c r="G89" t="s">
-        <v>70</v>
+        <v>788</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>415</v>
@@ -8212,7 +8224,7 @@
         <v>483</v>
       </c>
       <c r="G90" t="s">
-        <v>85</v>
+        <v>787</v>
       </c>
       <c r="H90" s="3" t="s">
         <v>367</v>
@@ -8256,7 +8268,7 @@
         <v>483</v>
       </c>
       <c r="G91" t="s">
-        <v>85</v>
+        <v>787</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>351</v>
@@ -8303,7 +8315,7 @@
         <v>366</v>
       </c>
       <c r="G92" t="s">
-        <v>85</v>
+        <v>787</v>
       </c>
       <c r="H92" s="3" t="s">
         <v>367</v>
@@ -8350,7 +8362,7 @@
         <v>366</v>
       </c>
       <c r="G93" t="s">
-        <v>85</v>
+        <v>787</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>351</v>
@@ -8397,7 +8409,7 @@
         <v>70</v>
       </c>
       <c r="G94" t="s">
-        <v>70</v>
+        <v>788</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>428</v>
@@ -8441,7 +8453,7 @@
         <v>84</v>
       </c>
       <c r="G95" t="s">
-        <v>53</v>
+        <v>786</v>
       </c>
       <c r="H95" s="3" t="s">
         <v>582</v>
@@ -8488,7 +8500,7 @@
         <v>70</v>
       </c>
       <c r="G96" t="s">
-        <v>70</v>
+        <v>788</v>
       </c>
       <c r="H96" s="3" t="s">
         <v>351</v>
@@ -8535,7 +8547,7 @@
         <v>52</v>
       </c>
       <c r="G97" t="s">
-        <v>53</v>
+        <v>786</v>
       </c>
       <c r="H97" s="3" t="s">
         <v>463</v>
@@ -8582,7 +8594,7 @@
         <v>70</v>
       </c>
       <c r="G98" s="5" t="s">
-        <v>53</v>
+        <v>786</v>
       </c>
       <c r="H98" s="3" t="s">
         <v>600</v>
@@ -8626,7 +8638,7 @@
         <v>414</v>
       </c>
       <c r="G99" t="s">
-        <v>85</v>
+        <v>787</v>
       </c>
       <c r="H99" s="3" t="s">
         <v>605</v>
@@ -8670,7 +8682,7 @@
         <v>70</v>
       </c>
       <c r="G100" t="s">
-        <v>70</v>
+        <v>788</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>600</v>
@@ -8714,7 +8726,7 @@
         <v>70</v>
       </c>
       <c r="G101" t="s">
-        <v>70</v>
+        <v>788</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>582</v>
@@ -8758,7 +8770,7 @@
         <v>84</v>
       </c>
       <c r="G102" s="5" t="s">
-        <v>85</v>
+        <v>787</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>600</v>
@@ -8802,7 +8814,7 @@
         <v>623</v>
       </c>
       <c r="G103" t="s">
-        <v>53</v>
+        <v>786</v>
       </c>
       <c r="H103" s="3" t="s">
         <v>624</v>
@@ -8849,7 +8861,7 @@
         <v>70</v>
       </c>
       <c r="G104" t="s">
-        <v>70</v>
+        <v>788</v>
       </c>
       <c r="H104" s="3" t="s">
         <v>630</v>
@@ -8893,7 +8905,7 @@
         <v>636</v>
       </c>
       <c r="G105" t="s">
-        <v>53</v>
+        <v>786</v>
       </c>
       <c r="H105" s="3" t="s">
         <v>463</v>
@@ -8940,7 +8952,7 @@
         <v>70</v>
       </c>
       <c r="G106" t="s">
-        <v>70</v>
+        <v>788</v>
       </c>
       <c r="H106" s="3" t="s">
         <v>428</v>
@@ -8987,7 +8999,7 @@
         <v>70</v>
       </c>
       <c r="G107" t="s">
-        <v>70</v>
+        <v>788</v>
       </c>
       <c r="H107" s="3" t="s">
         <v>630</v>
@@ -9034,7 +9046,7 @@
         <v>650</v>
       </c>
       <c r="G108" t="s">
-        <v>20</v>
+        <v>785</v>
       </c>
       <c r="H108" s="3" t="s">
         <v>351</v>
@@ -9078,7 +9090,7 @@
         <v>70</v>
       </c>
       <c r="G109" t="s">
-        <v>70</v>
+        <v>788</v>
       </c>
       <c r="H109" s="3" t="s">
         <v>351</v>
@@ -9122,7 +9134,7 @@
         <v>52</v>
       </c>
       <c r="G110" t="s">
-        <v>53</v>
+        <v>786</v>
       </c>
       <c r="H110" s="3" t="s">
         <v>351</v>
@@ -9169,7 +9181,7 @@
         <v>636</v>
       </c>
       <c r="G111" s="5" t="s">
-        <v>85</v>
+        <v>787</v>
       </c>
       <c r="H111" s="3" t="s">
         <v>663</v>
@@ -9213,7 +9225,7 @@
         <v>19</v>
       </c>
       <c r="G112" t="s">
-        <v>20</v>
+        <v>785</v>
       </c>
       <c r="H112" s="3" t="s">
         <v>351</v>
@@ -9257,7 +9269,7 @@
         <v>366</v>
       </c>
       <c r="G113" t="s">
-        <v>85</v>
+        <v>787</v>
       </c>
       <c r="H113" s="3" t="s">
         <v>351</v>
@@ -9301,7 +9313,7 @@
         <v>52</v>
       </c>
       <c r="G114" t="s">
-        <v>53</v>
+        <v>786</v>
       </c>
       <c r="H114" s="3" t="s">
         <v>463</v>
@@ -9345,7 +9357,7 @@
         <v>681</v>
       </c>
       <c r="G115" t="s">
-        <v>85</v>
+        <v>787</v>
       </c>
       <c r="H115" s="3" t="s">
         <v>531</v>
@@ -9389,7 +9401,7 @@
         <v>681</v>
       </c>
       <c r="G116" t="s">
-        <v>85</v>
+        <v>787</v>
       </c>
       <c r="H116" s="3" t="s">
         <v>684</v>
@@ -9436,7 +9448,7 @@
         <v>70</v>
       </c>
       <c r="G117" t="s">
-        <v>70</v>
+        <v>788</v>
       </c>
       <c r="H117" s="3" t="s">
         <v>600</v>
@@ -9480,7 +9492,7 @@
         <v>52</v>
       </c>
       <c r="G118" t="s">
-        <v>53</v>
+        <v>786</v>
       </c>
       <c r="H118" s="3" t="s">
         <v>351</v>
@@ -9524,7 +9536,7 @@
         <v>52</v>
       </c>
       <c r="G119" t="s">
-        <v>53</v>
+        <v>786</v>
       </c>
       <c r="H119" s="3" t="s">
         <v>351</v>
@@ -9568,7 +9580,7 @@
         <v>70</v>
       </c>
       <c r="G120" t="s">
-        <v>70</v>
+        <v>788</v>
       </c>
       <c r="H120" s="3" t="s">
         <v>511</v>
@@ -9612,7 +9624,7 @@
         <v>19</v>
       </c>
       <c r="G121" t="s">
-        <v>20</v>
+        <v>785</v>
       </c>
       <c r="H121" s="3" t="s">
         <v>351</v>
@@ -9662,7 +9674,7 @@
         <v>52</v>
       </c>
       <c r="G122" t="s">
-        <v>53</v>
+        <v>786</v>
       </c>
       <c r="H122" s="3" t="s">
         <v>351</v>
@@ -9706,7 +9718,7 @@
         <v>716</v>
       </c>
       <c r="G123" t="s">
-        <v>85</v>
+        <v>787</v>
       </c>
       <c r="H123" s="3" t="s">
         <v>463</v>
@@ -9753,7 +9765,7 @@
         <v>70</v>
       </c>
       <c r="G124" t="s">
-        <v>70</v>
+        <v>788</v>
       </c>
       <c r="H124" s="3" t="s">
         <v>722</v>
@@ -9800,7 +9812,7 @@
         <v>19</v>
       </c>
       <c r="G125" t="s">
-        <v>20</v>
+        <v>785</v>
       </c>
       <c r="H125" s="3" t="s">
         <v>415</v>
@@ -9844,7 +9856,7 @@
         <v>19</v>
       </c>
       <c r="G126" t="s">
-        <v>20</v>
+        <v>785</v>
       </c>
       <c r="H126" s="3" t="s">
         <v>415</v>
@@ -9885,7 +9897,7 @@
         <v>19</v>
       </c>
       <c r="G127" t="s">
-        <v>20</v>
+        <v>785</v>
       </c>
       <c r="H127" s="3" t="s">
         <v>734</v>
@@ -9926,7 +9938,7 @@
         <v>19</v>
       </c>
       <c r="G128" t="s">
-        <v>20</v>
+        <v>785</v>
       </c>
       <c r="H128" s="3" t="s">
         <v>531</v>
@@ -9970,7 +9982,7 @@
         <v>19</v>
       </c>
       <c r="G129" t="s">
-        <v>20</v>
+        <v>785</v>
       </c>
       <c r="H129" s="3" t="s">
         <v>740</v>
@@ -10014,7 +10026,7 @@
         <v>52</v>
       </c>
       <c r="G130" t="s">
-        <v>53</v>
+        <v>786</v>
       </c>
       <c r="H130" s="3" t="s">
         <v>351</v>
@@ -10061,7 +10073,7 @@
         <v>52</v>
       </c>
       <c r="G131" t="s">
-        <v>53</v>
+        <v>786</v>
       </c>
       <c r="H131" s="3" t="s">
         <v>351</v>
@@ -10105,7 +10117,7 @@
         <v>84</v>
       </c>
       <c r="G132" t="s">
-        <v>85</v>
+        <v>787</v>
       </c>
       <c r="H132" t="s">
         <v>367</v>
@@ -10152,7 +10164,7 @@
         <v>281</v>
       </c>
       <c r="G133" s="10" t="s">
-        <v>53</v>
+        <v>786</v>
       </c>
       <c r="H133" s="12" t="s">
         <v>44</v>
@@ -10196,7 +10208,7 @@
         <v>19</v>
       </c>
       <c r="G134" t="s">
-        <v>20</v>
+        <v>785</v>
       </c>
       <c r="H134" s="3" t="s">
         <v>764</v>
